--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_7_2.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_7_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.3 joborglink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1787556-E328-4CDE-AB07-DC1D50FD8A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3A83B5-A9E3-4199-8C58-2650EFCAC317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6144,8 +6144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="B441" sqref="B441"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_7_2.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.3 joborglink/joborglink_7_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.3 joborglink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3A83B5-A9E3-4199-8C58-2650EFCAC317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28E621B-758F-4330-9C87-2823A8D04BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4041" uniqueCount="1919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4038" uniqueCount="1918">
   <si>
     <t>OrgString</t>
   </si>
@@ -2513,9 +2513,6 @@
   </si>
   <si>
     <t>범민련? 북측본부</t>
-  </si>
-  <si>
-    <t>법안심의위</t>
   </si>
   <si>
     <t>법안심의위원회</t>
@@ -4638,9 +4635,6 @@
     <t>중앙방송위원회</t>
   </si>
   <si>
-    <t>중앙방송위원회  텔레비전총국</t>
-  </si>
-  <si>
     <t>문화성_조선중앙방송위원회_텔레비전총국</t>
   </si>
   <si>
@@ -4701,9 +4695,6 @@
     <t>대외경제성_민족경제협력위원회_중앙특구개발지도총국</t>
   </si>
   <si>
-    <t>중화군 당 위원회</t>
-  </si>
-  <si>
     <t>당중앙위원회_황해북도당위원회_중화군당위원회</t>
   </si>
   <si>
@@ -5779,6 +5770,12 @@
   </si>
   <si>
     <t>Check the year. 문화연락부, 대남연락부, 대외연락부</t>
+  </si>
+  <si>
+    <t>중앙방송위원회 텔레비전총국</t>
+  </si>
+  <si>
+    <t>해북도 중화군 당 위원회</t>
   </si>
 </sst>
 </file>
@@ -6142,15 +6139,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1427"/>
+  <dimension ref="A1:D1426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView tabSelected="1" topLeftCell="A1155" workbookViewId="0">
+      <selection activeCell="C1170" sqref="C1170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" customWidth="1"/>
     <col min="2" max="3" width="36.453125" customWidth="1"/>
     <col min="4" max="4" width="23.7265625" customWidth="1"/>
   </cols>
@@ -10880,7 +10877,7 @@
         <v>491</v>
       </c>
       <c r="D441" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.35">
@@ -12293,7 +12290,7 @@
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B576" t="s">
         <v>44</v>
@@ -12307,43 +12304,43 @@
         <v>833</v>
       </c>
       <c r="B577" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C577" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B578" t="s">
         <v>10</v>
       </c>
       <c r="C578" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B579" t="s">
         <v>10</v>
       </c>
       <c r="C579" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
+        <v>839</v>
+      </c>
+      <c r="B580" t="s">
+        <v>10</v>
+      </c>
+      <c r="C580" t="s">
         <v>838</v>
-      </c>
-      <c r="B580" t="s">
-        <v>10</v>
-      </c>
-      <c r="C580" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.35">
@@ -12354,7 +12351,7 @@
         <v>10</v>
       </c>
       <c r="C581" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.35">
@@ -12365,7 +12362,7 @@
         <v>10</v>
       </c>
       <c r="C582" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.35">
@@ -12376,7 +12373,7 @@
         <v>10</v>
       </c>
       <c r="C583" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.35">
@@ -12395,28 +12392,25 @@
         <v>844</v>
       </c>
       <c r="B585" t="s">
-        <v>10</v>
-      </c>
-      <c r="C585" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B586" t="s">
-        <v>846</v>
+        <v>847</v>
+      </c>
+      <c r="C586" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B587" t="s">
-        <v>848</v>
-      </c>
-      <c r="C587" t="s">
         <v>849</v>
       </c>
     </row>
@@ -12425,23 +12419,23 @@
         <v>850</v>
       </c>
       <c r="B588" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B589" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B590" t="s">
-        <v>854</v>
+        <v>5</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.35">
@@ -12449,26 +12443,26 @@
         <v>855</v>
       </c>
       <c r="B591" t="s">
-        <v>5</v>
+        <v>856</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B592" t="s">
-        <v>857</v>
+        <v>858</v>
+      </c>
+      <c r="C592" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B593" t="s">
-        <v>859</v>
-      </c>
-      <c r="C593" t="s">
-        <v>317</v>
+        <v>856</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.35">
@@ -12476,23 +12470,23 @@
         <v>860</v>
       </c>
       <c r="B594" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="B595" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="B596" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.35">
@@ -12500,18 +12494,21 @@
         <v>862</v>
       </c>
       <c r="B597" t="s">
-        <v>862</v>
+        <v>10</v>
+      </c>
+      <c r="C597" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
+        <v>864</v>
+      </c>
+      <c r="B598" t="s">
+        <v>10</v>
+      </c>
+      <c r="C598" t="s">
         <v>863</v>
-      </c>
-      <c r="B598" t="s">
-        <v>10</v>
-      </c>
-      <c r="C598" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.35">
@@ -12519,10 +12516,10 @@
         <v>865</v>
       </c>
       <c r="B599" t="s">
-        <v>10</v>
+        <v>847</v>
       </c>
       <c r="C599" t="s">
-        <v>864</v>
+        <v>317</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.35">
@@ -12530,7 +12527,7 @@
         <v>866</v>
       </c>
       <c r="B600" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C600" t="s">
         <v>317</v>
@@ -12541,10 +12538,7 @@
         <v>867</v>
       </c>
       <c r="B601" t="s">
-        <v>848</v>
-      </c>
-      <c r="C601" t="s">
-        <v>317</v>
+        <v>847</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.35">
@@ -12552,18 +12546,21 @@
         <v>868</v>
       </c>
       <c r="B602" t="s">
-        <v>848</v>
+        <v>847</v>
+      </c>
+      <c r="C602" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B603" t="s">
-        <v>848</v>
+        <v>5</v>
       </c>
       <c r="C603" t="s">
-        <v>870</v>
+        <v>503</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.35">
@@ -12571,51 +12568,51 @@
         <v>871</v>
       </c>
       <c r="B604" t="s">
-        <v>5</v>
-      </c>
-      <c r="C604" t="s">
-        <v>503</v>
+        <v>872</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
+        <v>873</v>
+      </c>
+      <c r="B605" t="s">
         <v>872</v>
       </c>
-      <c r="B605" t="s">
-        <v>873</v>
+      <c r="C605" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B606" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C606" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B607" t="s">
-        <v>873</v>
+        <v>10</v>
       </c>
       <c r="C607" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
+        <v>879</v>
+      </c>
+      <c r="B608" t="s">
+        <v>10</v>
+      </c>
+      <c r="C608" t="s">
         <v>878</v>
-      </c>
-      <c r="B608" t="s">
-        <v>10</v>
-      </c>
-      <c r="C608" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.35">
@@ -12623,10 +12620,7 @@
         <v>880</v>
       </c>
       <c r="B609" t="s">
-        <v>10</v>
-      </c>
-      <c r="C609" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.35">
@@ -12634,29 +12628,32 @@
         <v>881</v>
       </c>
       <c r="B610" t="s">
-        <v>881</v>
+        <v>880</v>
+      </c>
+      <c r="C610" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B611" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C611" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B612" t="s">
-        <v>881</v>
+        <v>172</v>
       </c>
       <c r="C612" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.35">
@@ -12667,7 +12664,7 @@
         <v>172</v>
       </c>
       <c r="C613" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.35">
@@ -12678,89 +12675,89 @@
         <v>172</v>
       </c>
       <c r="C614" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
-        <v>888</v>
+        <v>429</v>
       </c>
       <c r="B615" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C615" t="s">
-        <v>887</v>
+        <v>429</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
-        <v>429</v>
+        <v>888</v>
       </c>
       <c r="B616" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="C616" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
-        <v>889</v>
+        <v>872</v>
       </c>
       <c r="B617" t="s">
-        <v>10</v>
-      </c>
-      <c r="C617" t="s">
-        <v>431</v>
+        <v>872</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
-        <v>873</v>
+        <v>889</v>
       </c>
       <c r="B618" t="s">
-        <v>873</v>
+        <v>324</v>
+      </c>
+      <c r="C618" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B619" t="s">
         <v>324</v>
       </c>
       <c r="C619" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
-        <v>892</v>
+        <v>433</v>
       </c>
       <c r="B620" t="s">
-        <v>324</v>
+        <v>10</v>
       </c>
       <c r="C620" t="s">
-        <v>891</v>
+        <v>433</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
-        <v>433</v>
+        <v>892</v>
       </c>
       <c r="B621" t="s">
         <v>10</v>
       </c>
       <c r="C621" t="s">
-        <v>433</v>
+        <v>893</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B622" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C622" t="s">
         <v>894</v>
@@ -12771,15 +12768,15 @@
         <v>895</v>
       </c>
       <c r="B623" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C623" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B624" t="s">
         <v>10</v>
@@ -12790,24 +12787,24 @@
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B625" t="s">
         <v>10</v>
       </c>
       <c r="C625" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B626" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C626" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.35">
@@ -12815,57 +12812,57 @@
         <v>899</v>
       </c>
       <c r="B627" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C627" t="s">
-        <v>899</v>
+        <v>900</v>
+      </c>
+      <c r="D627" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B628" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C628" t="s">
-        <v>901</v>
-      </c>
-      <c r="D628" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B629" t="s">
         <v>10</v>
       </c>
       <c r="C629" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B630" t="s">
         <v>10</v>
       </c>
       <c r="C630" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B631" t="s">
         <v>10</v>
       </c>
       <c r="C631" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.35">
@@ -12884,10 +12881,10 @@
         <v>907</v>
       </c>
       <c r="B633" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C633" t="s">
-        <v>907</v>
+        <v>505</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.35">
@@ -12895,18 +12892,15 @@
         <v>908</v>
       </c>
       <c r="B634" t="s">
-        <v>5</v>
-      </c>
-      <c r="C634" t="s">
-        <v>505</v>
+        <v>909</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
+        <v>910</v>
+      </c>
+      <c r="B635" t="s">
         <v>909</v>
-      </c>
-      <c r="B635" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.35">
@@ -12914,7 +12908,7 @@
         <v>911</v>
       </c>
       <c r="B636" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.35">
@@ -12922,7 +12916,7 @@
         <v>912</v>
       </c>
       <c r="B637" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.35">
@@ -12930,7 +12924,7 @@
         <v>913</v>
       </c>
       <c r="B638" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.35">
@@ -12938,7 +12932,7 @@
         <v>914</v>
       </c>
       <c r="B639" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.35">
@@ -12946,18 +12940,21 @@
         <v>915</v>
       </c>
       <c r="B640" t="s">
-        <v>910</v>
+        <v>10</v>
+      </c>
+      <c r="C640" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
+        <v>917</v>
+      </c>
+      <c r="B641" t="s">
+        <v>10</v>
+      </c>
+      <c r="C641" t="s">
         <v>916</v>
-      </c>
-      <c r="B641" t="s">
-        <v>10</v>
-      </c>
-      <c r="C641" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.35">
@@ -12968,7 +12965,7 @@
         <v>10</v>
       </c>
       <c r="C642" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.35">
@@ -12979,7 +12976,7 @@
         <v>10</v>
       </c>
       <c r="C643" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.35">
@@ -12990,7 +12987,7 @@
         <v>10</v>
       </c>
       <c r="C644" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.35">
@@ -13001,7 +12998,7 @@
         <v>10</v>
       </c>
       <c r="C645" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.35">
@@ -13012,7 +13009,7 @@
         <v>10</v>
       </c>
       <c r="C646" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.35">
@@ -13023,7 +13020,7 @@
         <v>10</v>
       </c>
       <c r="C647" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.35">
@@ -13034,7 +13031,7 @@
         <v>10</v>
       </c>
       <c r="C648" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.35">
@@ -13042,9 +13039,6 @@
         <v>925</v>
       </c>
       <c r="B649" t="s">
-        <v>10</v>
-      </c>
-      <c r="C649" t="s">
         <v>925</v>
       </c>
     </row>
@@ -13061,7 +13055,7 @@
         <v>927</v>
       </c>
       <c r="B651" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.35">
@@ -13069,15 +13063,18 @@
         <v>928</v>
       </c>
       <c r="B652" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B653" t="s">
-        <v>930</v>
+        <v>10</v>
+      </c>
+      <c r="C653" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.35">
@@ -13110,7 +13107,7 @@
         <v>10</v>
       </c>
       <c r="C656" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.35">
@@ -13132,26 +13129,23 @@
         <v>10</v>
       </c>
       <c r="C658" t="s">
-        <v>451</v>
+        <v>936</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B659" t="s">
-        <v>10</v>
-      </c>
-      <c r="C659" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
+        <v>939</v>
+      </c>
+      <c r="B660" t="s">
         <v>938</v>
-      </c>
-      <c r="B660" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.35">
@@ -13159,18 +13153,21 @@
         <v>940</v>
       </c>
       <c r="B661" t="s">
-        <v>939</v>
+        <v>10</v>
+      </c>
+      <c r="C661" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
+        <v>942</v>
+      </c>
+      <c r="B662" t="s">
+        <v>10</v>
+      </c>
+      <c r="C662" t="s">
         <v>941</v>
-      </c>
-      <c r="B662" t="s">
-        <v>10</v>
-      </c>
-      <c r="C662" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.35">
@@ -13181,7 +13178,7 @@
         <v>10</v>
       </c>
       <c r="C663" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.35">
@@ -13192,40 +13189,37 @@
         <v>10</v>
       </c>
       <c r="C664" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
+        <v>946</v>
+      </c>
+      <c r="B665" t="s">
+        <v>10</v>
+      </c>
+      <c r="C665" t="s">
         <v>945</v>
-      </c>
-      <c r="B665" t="s">
-        <v>10</v>
-      </c>
-      <c r="C665" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B666" t="s">
         <v>10</v>
       </c>
       <c r="C666" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B667" t="s">
-        <v>10</v>
-      </c>
-      <c r="C667" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.35">
@@ -13233,7 +13227,7 @@
         <v>948</v>
       </c>
       <c r="B668" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.35">
@@ -13241,15 +13235,18 @@
         <v>949</v>
       </c>
       <c r="B669" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B670" t="s">
-        <v>951</v>
+        <v>10</v>
+      </c>
+      <c r="C670" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.35">
@@ -13268,10 +13265,7 @@
         <v>953</v>
       </c>
       <c r="B672" t="s">
-        <v>10</v>
-      </c>
-      <c r="C672" t="s">
-        <v>453</v>
+        <v>776</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.35">
@@ -13279,18 +13273,21 @@
         <v>954</v>
       </c>
       <c r="B673" t="s">
-        <v>776</v>
+        <v>10</v>
+      </c>
+      <c r="C673" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
+        <v>956</v>
+      </c>
+      <c r="B674" t="s">
+        <v>10</v>
+      </c>
+      <c r="C674" t="s">
         <v>955</v>
-      </c>
-      <c r="B674" t="s">
-        <v>10</v>
-      </c>
-      <c r="C674" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.35">
@@ -13301,7 +13298,7 @@
         <v>10</v>
       </c>
       <c r="C675" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.35">
@@ -13309,43 +13306,43 @@
         <v>958</v>
       </c>
       <c r="B676" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C676" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B677" t="s">
-        <v>5</v>
-      </c>
-      <c r="C677" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B678" t="s">
-        <v>962</v>
+        <v>10</v>
+      </c>
+      <c r="C678" t="s">
+        <v>438</v>
+      </c>
+      <c r="D678" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B679" t="s">
         <v>10</v>
       </c>
       <c r="C679" t="s">
         <v>438</v>
-      </c>
-      <c r="D679" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.35">
@@ -13353,21 +13350,21 @@
         <v>965</v>
       </c>
       <c r="B680" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C680" t="s">
-        <v>438</v>
+        <v>966</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
+        <v>967</v>
+      </c>
+      <c r="B681" t="s">
+        <v>5</v>
+      </c>
+      <c r="C681" t="s">
         <v>966</v>
-      </c>
-      <c r="B681" t="s">
-        <v>5</v>
-      </c>
-      <c r="C681" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.35">
@@ -13378,7 +13375,7 @@
         <v>5</v>
       </c>
       <c r="C682" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.35">
@@ -13389,7 +13386,7 @@
         <v>5</v>
       </c>
       <c r="C683" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.35">
@@ -13397,40 +13394,40 @@
         <v>970</v>
       </c>
       <c r="B684" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C684" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B685" t="s">
-        <v>44</v>
-      </c>
-      <c r="C685" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B686" t="s">
-        <v>974</v>
+        <v>61</v>
+      </c>
+      <c r="C686" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B687" t="s">
         <v>61</v>
       </c>
       <c r="C687" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.35">
@@ -13438,21 +13435,18 @@
         <v>977</v>
       </c>
       <c r="B688" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C688" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B689" t="s">
-        <v>10</v>
-      </c>
-      <c r="C689" t="s">
-        <v>979</v>
+        <v>527</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.35">
@@ -13462,6 +13456,9 @@
       <c r="B690" t="s">
         <v>527</v>
       </c>
+      <c r="C690" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
@@ -13471,34 +13468,34 @@
         <v>527</v>
       </c>
       <c r="C691" t="s">
-        <v>317</v>
+        <v>982</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B692" t="s">
-        <v>527</v>
-      </c>
-      <c r="C692" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B693" t="s">
-        <v>985</v>
+        <v>10</v>
+      </c>
+      <c r="C693" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B694" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C694" t="s">
         <v>987</v>
@@ -13512,7 +13509,7 @@
         <v>44</v>
       </c>
       <c r="C695" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.35">
@@ -13523,7 +13520,7 @@
         <v>44</v>
       </c>
       <c r="C696" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.35">
@@ -13531,65 +13528,65 @@
         <v>990</v>
       </c>
       <c r="B697" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C697" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B698" t="s">
         <v>10</v>
       </c>
       <c r="C698" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
-        <v>993</v>
+        <v>11</v>
       </c>
       <c r="B699" t="s">
         <v>10</v>
       </c>
       <c r="C699" t="s">
-        <v>994</v>
+        <v>11</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
-        <v>11</v>
+        <v>994</v>
       </c>
       <c r="B700" t="s">
         <v>10</v>
       </c>
       <c r="C700" t="s">
-        <v>11</v>
+        <v>995</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B701" t="s">
         <v>10</v>
       </c>
       <c r="C701" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B702" t="s">
         <v>10</v>
       </c>
       <c r="C702" t="s">
-        <v>998</v>
+        <v>440</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.35">
@@ -13600,7 +13597,7 @@
         <v>10</v>
       </c>
       <c r="C703" t="s">
-        <v>440</v>
+        <v>11</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.35">
@@ -13611,15 +13608,15 @@
         <v>10</v>
       </c>
       <c r="C704" t="s">
-        <v>11</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B705" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C705" t="s">
         <v>1002</v>
@@ -13630,26 +13627,26 @@
         <v>1003</v>
       </c>
       <c r="B706" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C706" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B707" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C707" t="s">
-        <v>1005</v>
+        <v>436</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
-        <v>1006</v>
+        <v>436</v>
       </c>
       <c r="B708" t="s">
         <v>10</v>
@@ -13660,24 +13657,24 @@
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
-        <v>436</v>
+        <v>1006</v>
       </c>
       <c r="B709" t="s">
         <v>10</v>
       </c>
       <c r="C709" t="s">
-        <v>436</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B710" t="s">
         <v>10</v>
       </c>
       <c r="C710" t="s">
-        <v>1008</v>
+        <v>289</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.35">
@@ -13688,29 +13685,29 @@
         <v>10</v>
       </c>
       <c r="C711" t="s">
-        <v>289</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B712" t="s">
         <v>10</v>
       </c>
       <c r="C712" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B713" t="s">
         <v>10</v>
       </c>
       <c r="C713" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.35">
@@ -13721,18 +13718,18 @@
         <v>10</v>
       </c>
       <c r="C714" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B715" t="s">
         <v>10</v>
       </c>
       <c r="C715" t="s">
-        <v>1016</v>
+        <v>436</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.35">
@@ -13784,21 +13781,18 @@
         <v>1021</v>
       </c>
       <c r="B720" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="C720" t="s">
-        <v>436</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B721" t="s">
-        <v>161</v>
-      </c>
-      <c r="C721" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.35">
@@ -13806,7 +13800,7 @@
         <v>1024</v>
       </c>
       <c r="B722" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.35">
@@ -13814,7 +13808,7 @@
         <v>1025</v>
       </c>
       <c r="B723" t="s">
-        <v>1025</v>
+        <v>761</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.35">
@@ -13822,37 +13816,40 @@
         <v>1026</v>
       </c>
       <c r="B724" t="s">
-        <v>761</v>
+        <v>10</v>
+      </c>
+      <c r="C724" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B725" t="s">
-        <v>10</v>
-      </c>
-      <c r="C725" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B726" t="s">
-        <v>1030</v>
+        <v>10</v>
+      </c>
+      <c r="C726" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B727" t="s">
+        <v>10</v>
+      </c>
+      <c r="C727" t="s">
         <v>1031</v>
-      </c>
-      <c r="B727" t="s">
-        <v>10</v>
-      </c>
-      <c r="C727" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.35">
@@ -13860,10 +13857,7 @@
         <v>1033</v>
       </c>
       <c r="B728" t="s">
-        <v>10</v>
-      </c>
-      <c r="C728" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.35">
@@ -13871,7 +13865,7 @@
         <v>1034</v>
       </c>
       <c r="B729" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.35">
@@ -13879,12 +13873,15 @@
         <v>1035</v>
       </c>
       <c r="B730" t="s">
-        <v>1034</v>
+        <v>10</v>
+      </c>
+      <c r="C730" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B731" t="s">
         <v>10</v>
@@ -13901,7 +13898,7 @@
         <v>10</v>
       </c>
       <c r="C732" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.35">
@@ -13912,7 +13909,7 @@
         <v>10</v>
       </c>
       <c r="C733" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.35">
@@ -13923,18 +13920,18 @@
         <v>10</v>
       </c>
       <c r="C734" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B735" t="s">
         <v>10</v>
       </c>
       <c r="C735" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.35">
@@ -13945,18 +13942,18 @@
         <v>10</v>
       </c>
       <c r="C736" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A737" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B737" t="s">
+        <v>10</v>
+      </c>
+      <c r="C737" t="s">
         <v>1044</v>
-      </c>
-      <c r="B737" t="s">
-        <v>10</v>
-      </c>
-      <c r="C737" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.35">
@@ -13967,7 +13964,7 @@
         <v>10</v>
       </c>
       <c r="C738" t="s">
-        <v>1045</v>
+        <v>37</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.35">
@@ -14022,61 +14019,58 @@
         <v>10</v>
       </c>
       <c r="C743" t="s">
-        <v>37</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A744" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B744" t="s">
+        <v>10</v>
+      </c>
+      <c r="C744" t="s">
         <v>1052</v>
-      </c>
-      <c r="B744" t="s">
-        <v>10</v>
-      </c>
-      <c r="C744" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A745" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B745" t="s">
         <v>10</v>
       </c>
       <c r="C745" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A746" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B746" t="s">
         <v>10</v>
       </c>
       <c r="C746" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A747" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B747" t="s">
         <v>10</v>
       </c>
       <c r="C747" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A748" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B748" t="s">
-        <v>10</v>
-      </c>
-      <c r="C748" t="s">
         <v>1058</v>
       </c>
     </row>
@@ -14085,34 +14079,37 @@
         <v>1059</v>
       </c>
       <c r="B749" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A750" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B750" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A751" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B751" t="s">
-        <v>1063</v>
+        <v>523</v>
+      </c>
+      <c r="C751" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A752" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B752" t="s">
-        <v>523</v>
+        <v>10</v>
       </c>
       <c r="C752" t="s">
-        <v>1065</v>
+        <v>765</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.35">
@@ -14123,7 +14120,7 @@
         <v>10</v>
       </c>
       <c r="C753" t="s">
-        <v>765</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.35">
@@ -14134,7 +14131,7 @@
         <v>10</v>
       </c>
       <c r="C754" t="s">
-        <v>1011</v>
+        <v>374</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.35">
@@ -14145,29 +14142,29 @@
         <v>10</v>
       </c>
       <c r="C755" t="s">
-        <v>374</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A756" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B756" t="s">
         <v>10</v>
       </c>
       <c r="C756" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A757" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B757" t="s">
+        <v>10</v>
+      </c>
+      <c r="C757" t="s">
         <v>1071</v>
-      </c>
-      <c r="B757" t="s">
-        <v>10</v>
-      </c>
-      <c r="C757" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.35">
@@ -14178,40 +14175,40 @@
         <v>10</v>
       </c>
       <c r="C758" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A759" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B759" t="s">
         <v>10</v>
       </c>
       <c r="C759" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A760" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B760" t="s">
         <v>10</v>
       </c>
       <c r="C760" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A761" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B761" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C761" t="s">
-        <v>1079</v>
+        <v>25</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.35">
@@ -14222,18 +14219,18 @@
         <v>16</v>
       </c>
       <c r="C762" t="s">
-        <v>25</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A763" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B763" t="s">
         <v>16</v>
       </c>
       <c r="C763" t="s">
-        <v>1082</v>
+        <v>21</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.35">
@@ -14244,7 +14241,7 @@
         <v>16</v>
       </c>
       <c r="C764" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.35">
@@ -14255,7 +14252,7 @@
         <v>16</v>
       </c>
       <c r="C765" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.35">
@@ -14266,7 +14263,7 @@
         <v>16</v>
       </c>
       <c r="C766" t="s">
-        <v>30</v>
+        <v>233</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.35">
@@ -14277,40 +14274,40 @@
         <v>16</v>
       </c>
       <c r="C767" t="s">
-        <v>233</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A768" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B768" t="s">
         <v>16</v>
       </c>
       <c r="C768" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A769" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B769" t="s">
         <v>16</v>
       </c>
       <c r="C769" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A770" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B770" t="s">
         <v>16</v>
       </c>
       <c r="C770" t="s">
-        <v>1092</v>
+        <v>235</v>
       </c>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.35">
@@ -14321,18 +14318,18 @@
         <v>16</v>
       </c>
       <c r="C771" t="s">
-        <v>235</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A772" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B772" t="s">
         <v>16</v>
       </c>
       <c r="C772" t="s">
-        <v>1095</v>
+        <v>237</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.35">
@@ -14343,7 +14340,7 @@
         <v>16</v>
       </c>
       <c r="C773" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.35">
@@ -14354,7 +14351,7 @@
         <v>16</v>
       </c>
       <c r="C774" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.35">
@@ -14365,7 +14362,7 @@
         <v>16</v>
       </c>
       <c r="C775" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.35">
@@ -14376,7 +14373,7 @@
         <v>16</v>
       </c>
       <c r="C776" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.35">
@@ -14387,32 +14384,32 @@
         <v>16</v>
       </c>
       <c r="C777" t="s">
-        <v>246</v>
+        <v>1101</v>
+      </c>
+      <c r="D777" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A778" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="B778" t="s">
         <v>16</v>
       </c>
       <c r="C778" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D778" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A779" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B779" t="s">
         <v>16</v>
       </c>
       <c r="C779" t="s">
-        <v>1105</v>
+        <v>252</v>
       </c>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.35">
@@ -14423,7 +14420,7 @@
         <v>16</v>
       </c>
       <c r="C780" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.35">
@@ -14434,7 +14431,7 @@
         <v>16</v>
       </c>
       <c r="C781" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.35">
@@ -14445,7 +14442,7 @@
         <v>16</v>
       </c>
       <c r="C782" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.35">
@@ -14456,18 +14453,18 @@
         <v>16</v>
       </c>
       <c r="C783" t="s">
-        <v>259</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A784" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B784" t="s">
         <v>16</v>
       </c>
       <c r="C784" t="s">
-        <v>1111</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.35">
@@ -14475,24 +14472,21 @@
         <v>1112</v>
       </c>
       <c r="B785" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C785" t="s">
-        <v>1092</v>
+        <v>209</v>
+      </c>
+      <c r="D785" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A786" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B786" t="s">
-        <v>5</v>
-      </c>
-      <c r="C786" t="s">
-        <v>209</v>
-      </c>
-      <c r="D786" t="s">
-        <v>1114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.35">
@@ -14502,6 +14496,9 @@
       <c r="B787" t="s">
         <v>16</v>
       </c>
+      <c r="C787" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A788" t="s">
@@ -14511,7 +14508,7 @@
         <v>16</v>
       </c>
       <c r="C788" t="s">
-        <v>237</v>
+        <v>23</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.35">
@@ -14522,18 +14519,18 @@
         <v>16</v>
       </c>
       <c r="C789" t="s">
-        <v>23</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A790" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B790" t="s">
         <v>16</v>
       </c>
       <c r="C790" t="s">
-        <v>1119</v>
+        <v>25</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.35">
@@ -14544,40 +14541,40 @@
         <v>16</v>
       </c>
       <c r="C791" t="s">
-        <v>25</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A792" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B792" t="s">
         <v>16</v>
       </c>
       <c r="C792" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A793" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B793" t="s">
         <v>16</v>
       </c>
       <c r="C793" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A794" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B794" t="s">
         <v>16</v>
       </c>
       <c r="C794" t="s">
-        <v>1126</v>
+        <v>900</v>
       </c>
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.35">
@@ -14588,7 +14585,7 @@
         <v>16</v>
       </c>
       <c r="C795" t="s">
-        <v>901</v>
+        <v>277</v>
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.35">
@@ -14607,15 +14604,15 @@
         <v>1129</v>
       </c>
       <c r="B797" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="C797" t="s">
-        <v>277</v>
+        <v>205</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A798" t="s">
-        <v>1130</v>
+        <v>205</v>
       </c>
       <c r="B798" t="s">
         <v>172</v>
@@ -14626,46 +14623,46 @@
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A799" t="s">
-        <v>205</v>
+        <v>1130</v>
       </c>
       <c r="B799" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C799" t="s">
-        <v>205</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A800" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B800" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C800" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A801" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B801" t="s">
         <v>172</v>
       </c>
       <c r="C801" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A802" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B802" t="s">
         <v>172</v>
       </c>
       <c r="C802" t="s">
-        <v>1136</v>
+        <v>205</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.35">
@@ -14673,10 +14670,10 @@
         <v>1137</v>
       </c>
       <c r="B803" t="s">
-        <v>172</v>
+        <v>5</v>
       </c>
       <c r="C803" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.35">
@@ -14687,7 +14684,7 @@
         <v>5</v>
       </c>
       <c r="C804" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.35">
@@ -14695,10 +14692,7 @@
         <v>1139</v>
       </c>
       <c r="B805" t="s">
-        <v>5</v>
-      </c>
-      <c r="C805" t="s">
-        <v>266</v>
+        <v>16</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.35">
@@ -14706,7 +14700,10 @@
         <v>1140</v>
       </c>
       <c r="B806" t="s">
-        <v>16</v>
+        <v>172</v>
+      </c>
+      <c r="C806" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.35">
@@ -14717,18 +14714,18 @@
         <v>172</v>
       </c>
       <c r="C807" t="s">
-        <v>213</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A808" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B808" t="s">
         <v>172</v>
       </c>
       <c r="C808" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.35">
@@ -14739,7 +14736,7 @@
         <v>172</v>
       </c>
       <c r="C809" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.35">
@@ -14750,34 +14747,34 @@
         <v>172</v>
       </c>
       <c r="C810" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A811" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B811" t="s">
         <v>172</v>
       </c>
       <c r="C811" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A812" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B812" t="s">
         <v>172</v>
       </c>
       <c r="C812" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A813" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B813" t="s">
         <v>172</v>
@@ -14794,51 +14791,51 @@
         <v>172</v>
       </c>
       <c r="C814" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A815" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B815" t="s">
         <v>172</v>
       </c>
       <c r="C815" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A816" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="B816" t="s">
         <v>172</v>
       </c>
       <c r="C816" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A817" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="B817" t="s">
         <v>172</v>
       </c>
       <c r="C817" t="s">
-        <v>1151</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A818" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B818" t="s">
         <v>172</v>
       </c>
       <c r="C818" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.35">
@@ -14846,10 +14843,10 @@
         <v>1158</v>
       </c>
       <c r="B819" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="C819" t="s">
-        <v>1151</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.35">
@@ -14857,18 +14854,15 @@
         <v>1159</v>
       </c>
       <c r="B820" t="s">
-        <v>10</v>
-      </c>
-      <c r="C820" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A821" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B821" t="s">
         <v>1160</v>
-      </c>
-      <c r="B821" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.35">
@@ -14876,7 +14870,10 @@
         <v>1162</v>
       </c>
       <c r="B822" t="s">
-        <v>1161</v>
+        <v>10</v>
+      </c>
+      <c r="C822" t="s">
+        <v>1163</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.35">
@@ -14887,7 +14884,7 @@
         <v>10</v>
       </c>
       <c r="C823" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.35">
@@ -14898,7 +14895,7 @@
         <v>10</v>
       </c>
       <c r="C824" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.35">
@@ -14909,7 +14906,7 @@
         <v>10</v>
       </c>
       <c r="C825" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.35">
@@ -14920,7 +14917,7 @@
         <v>10</v>
       </c>
       <c r="C826" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.35">
@@ -14928,43 +14925,43 @@
         <v>1167</v>
       </c>
       <c r="B827" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C827" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A828" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B828" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C828" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A829" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B829" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C829" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A830" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B830" t="s">
+        <v>5</v>
+      </c>
+      <c r="C830" t="s">
         <v>1172</v>
-      </c>
-      <c r="B830" t="s">
-        <v>5</v>
-      </c>
-      <c r="C830" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.35">
@@ -14972,32 +14969,32 @@
         <v>1174</v>
       </c>
       <c r="B831" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C831" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A832" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B832" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C832" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A833" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B833" t="s">
+        <v>5</v>
+      </c>
+      <c r="C833" t="s">
         <v>1177</v>
-      </c>
-      <c r="B833" t="s">
-        <v>5</v>
-      </c>
-      <c r="C833" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.35">
@@ -15005,21 +15002,21 @@
         <v>1179</v>
       </c>
       <c r="B834" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="C834" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A835" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B835" t="s">
         <v>61</v>
       </c>
       <c r="C835" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.35">
@@ -15027,10 +15024,10 @@
         <v>1182</v>
       </c>
       <c r="B836" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C836" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.35">
@@ -15041,7 +15038,7 @@
         <v>44</v>
       </c>
       <c r="C837" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.35">
@@ -15049,10 +15046,10 @@
         <v>1184</v>
       </c>
       <c r="B838" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C838" t="s">
-        <v>1184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.35">
@@ -15074,7 +15071,7 @@
         <v>10</v>
       </c>
       <c r="C840" t="s">
-        <v>178</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.35">
@@ -15082,26 +15079,26 @@
         <v>1187</v>
       </c>
       <c r="B841" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="C841" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A842" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B842" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="C842" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A843" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B843" t="s">
         <v>10</v>
@@ -15112,24 +15109,24 @@
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A844" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B844" t="s">
         <v>10</v>
       </c>
       <c r="C844" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A845" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B845" t="s">
         <v>10</v>
       </c>
       <c r="C845" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.35">
@@ -15140,32 +15137,32 @@
         <v>10</v>
       </c>
       <c r="C846" t="s">
-        <v>1191</v>
+        <v>1194</v>
+      </c>
+      <c r="D846" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A847" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="B847" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C847" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D847" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A848" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B848" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C848" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.35">
@@ -15176,7 +15173,7 @@
         <v>10</v>
       </c>
       <c r="C849" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.35">
@@ -15187,18 +15184,18 @@
         <v>10</v>
       </c>
       <c r="C850" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A851" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B851" t="s">
         <v>10</v>
       </c>
       <c r="C851" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.35">
@@ -15209,7 +15206,7 @@
         <v>10</v>
       </c>
       <c r="C852" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.35">
@@ -15220,7 +15217,7 @@
         <v>10</v>
       </c>
       <c r="C853" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.35">
@@ -15231,7 +15228,7 @@
         <v>10</v>
       </c>
       <c r="C854" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.35">
@@ -15242,40 +15239,43 @@
         <v>10</v>
       </c>
       <c r="C855" t="s">
-        <v>1200</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A856" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B856" t="s">
+        <v>10</v>
+      </c>
+      <c r="C856" t="s">
         <v>1207</v>
-      </c>
-      <c r="B856" t="s">
-        <v>10</v>
-      </c>
-      <c r="C856" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A857" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B857" t="s">
         <v>10</v>
       </c>
       <c r="C857" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A858" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B858" t="s">
         <v>10</v>
       </c>
       <c r="C858" t="s">
-        <v>1208</v>
+        <v>1210</v>
+      </c>
+      <c r="D858" t="s">
+        <v>1211</v>
       </c>
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.35">
@@ -15286,21 +15286,18 @@
         <v>10</v>
       </c>
       <c r="C859" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D859" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A860" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B860" t="s">
-        <v>10</v>
+        <v>491</v>
       </c>
       <c r="C860" t="s">
-        <v>1211</v>
+        <v>491</v>
       </c>
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.35">
@@ -15313,10 +15310,13 @@
       <c r="C861" t="s">
         <v>491</v>
       </c>
+      <c r="D861" t="s">
+        <v>1214</v>
+      </c>
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A862" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B862" t="s">
         <v>491</v>
@@ -15325,40 +15325,37 @@
         <v>491</v>
       </c>
       <c r="D862" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A863" t="s">
-        <v>1216</v>
+        <v>61</v>
       </c>
       <c r="B863" t="s">
-        <v>491</v>
-      </c>
-      <c r="C863" t="s">
-        <v>491</v>
-      </c>
-      <c r="D863" t="s">
-        <v>1217</v>
+        <v>61</v>
       </c>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A864" t="s">
-        <v>61</v>
+        <v>1217</v>
       </c>
       <c r="B864" t="s">
         <v>61</v>
       </c>
+      <c r="C864" t="s">
+        <v>1218</v>
+      </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A865" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B865" t="s">
         <v>61</v>
       </c>
       <c r="C865" t="s">
-        <v>1219</v>
+        <v>96</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.35">
@@ -15369,18 +15366,18 @@
         <v>61</v>
       </c>
       <c r="C866" t="s">
-        <v>96</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A867" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B867" t="s">
         <v>61</v>
       </c>
       <c r="C867" t="s">
-        <v>1222</v>
+        <v>128</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.35">
@@ -15402,29 +15399,29 @@
         <v>61</v>
       </c>
       <c r="C869" t="s">
-        <v>128</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A870" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B870" t="s">
         <v>61</v>
       </c>
       <c r="C870" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A871" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B871" t="s">
         <v>61</v>
       </c>
       <c r="C871" t="s">
-        <v>1228</v>
+        <v>134</v>
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.35">
@@ -15446,7 +15443,7 @@
         <v>61</v>
       </c>
       <c r="C873" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.35">
@@ -15468,7 +15465,7 @@
         <v>61</v>
       </c>
       <c r="C875" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.35">
@@ -15490,7 +15487,7 @@
         <v>61</v>
       </c>
       <c r="C877" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.35">
@@ -15501,7 +15498,7 @@
         <v>61</v>
       </c>
       <c r="C878" t="s">
-        <v>153</v>
+        <v>301</v>
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.35">
@@ -15523,7 +15520,7 @@
         <v>61</v>
       </c>
       <c r="C880" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.35">
@@ -15545,7 +15542,7 @@
         <v>61</v>
       </c>
       <c r="C882" t="s">
-        <v>310</v>
+        <v>415</v>
       </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.35">
@@ -15556,18 +15553,18 @@
         <v>61</v>
       </c>
       <c r="C883" t="s">
-        <v>415</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A884" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B884" t="s">
         <v>61</v>
       </c>
       <c r="C884" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.35">
@@ -15578,7 +15575,7 @@
         <v>61</v>
       </c>
       <c r="C885" t="s">
-        <v>1242</v>
+        <v>425</v>
       </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.35">
@@ -15586,10 +15583,10 @@
         <v>1244</v>
       </c>
       <c r="B886" t="s">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c r="C886" t="s">
-        <v>425</v>
+        <v>886</v>
       </c>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.35">
@@ -15597,10 +15594,10 @@
         <v>1245</v>
       </c>
       <c r="B887" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="C887" t="s">
-        <v>887</v>
+        <v>897</v>
       </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.35">
@@ -15611,7 +15608,7 @@
         <v>61</v>
       </c>
       <c r="C888" t="s">
-        <v>898</v>
+        <v>440</v>
       </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.35">
@@ -15633,7 +15630,7 @@
         <v>61</v>
       </c>
       <c r="C890" t="s">
-        <v>440</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.35">
@@ -15641,21 +15638,21 @@
         <v>1249</v>
       </c>
       <c r="B891" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C891" t="s">
-        <v>1037</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A892" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B892" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C892" t="s">
-        <v>1251</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.35">
@@ -15666,7 +15663,7 @@
         <v>61</v>
       </c>
       <c r="C893" t="s">
-        <v>1192</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.35">
@@ -15677,7 +15674,7 @@
         <v>61</v>
       </c>
       <c r="C894" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.35">
@@ -15685,65 +15682,65 @@
         <v>1254</v>
       </c>
       <c r="B895" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C895" t="s">
-        <v>1198</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A896" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B896" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C896" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A897" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B897" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C897" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A898" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B898" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C898" t="s">
-        <v>1260</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A899" t="s">
-        <v>1261</v>
+        <v>459</v>
       </c>
       <c r="B899" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C899" t="s">
-        <v>1095</v>
+        <v>6</v>
       </c>
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A900" t="s">
-        <v>459</v>
+        <v>1261</v>
       </c>
       <c r="B900" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C900" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.35">
@@ -15754,7 +15751,7 @@
         <v>16</v>
       </c>
       <c r="C901" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.35">
@@ -15762,10 +15759,10 @@
         <v>1263</v>
       </c>
       <c r="B902" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C902" t="s">
-        <v>19</v>
+        <v>733</v>
       </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.35">
@@ -15776,7 +15773,7 @@
         <v>44</v>
       </c>
       <c r="C903" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.35">
@@ -15784,10 +15781,10 @@
         <v>1265</v>
       </c>
       <c r="B904" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C904" t="s">
-        <v>730</v>
+        <v>237</v>
       </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.35">
@@ -15798,7 +15795,7 @@
         <v>16</v>
       </c>
       <c r="C905" t="s">
-        <v>237</v>
+        <v>21</v>
       </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.35">
@@ -15806,10 +15803,10 @@
         <v>1267</v>
       </c>
       <c r="B906" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C906" t="s">
-        <v>21</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.35">
@@ -15817,10 +15814,10 @@
         <v>1268</v>
       </c>
       <c r="B907" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C907" t="s">
-        <v>1268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.35">
@@ -15831,29 +15828,26 @@
         <v>16</v>
       </c>
       <c r="C908" t="s">
-        <v>246</v>
+        <v>23</v>
       </c>
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A909" t="s">
-        <v>1270</v>
+        <v>462</v>
       </c>
       <c r="B909" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C909" t="s">
-        <v>23</v>
+        <v>462</v>
       </c>
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A910" t="s">
-        <v>462</v>
+        <v>1270</v>
       </c>
       <c r="B910" t="s">
-        <v>10</v>
-      </c>
-      <c r="C910" t="s">
-        <v>462</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.35">
@@ -15861,7 +15855,10 @@
         <v>1271</v>
       </c>
       <c r="B911" t="s">
-        <v>1271</v>
+        <v>491</v>
+      </c>
+      <c r="C911" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.35">
@@ -15869,10 +15866,10 @@
         <v>1272</v>
       </c>
       <c r="B912" t="s">
-        <v>491</v>
+        <v>16</v>
       </c>
       <c r="C912" t="s">
-        <v>491</v>
+        <v>30</v>
       </c>
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.35">
@@ -15880,10 +15877,7 @@
         <v>1273</v>
       </c>
       <c r="B913" t="s">
-        <v>16</v>
-      </c>
-      <c r="C913" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.35">
@@ -15891,7 +15885,10 @@
         <v>1274</v>
       </c>
       <c r="B914" t="s">
-        <v>44</v>
+        <v>16</v>
+      </c>
+      <c r="C914" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="915" spans="1:3" x14ac:dyDescent="0.35">
@@ -15902,7 +15899,7 @@
         <v>16</v>
       </c>
       <c r="C915" t="s">
-        <v>30</v>
+        <v>233</v>
       </c>
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.35">
@@ -15913,7 +15910,7 @@
         <v>16</v>
       </c>
       <c r="C916" t="s">
-        <v>233</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.35">
@@ -15924,7 +15921,7 @@
         <v>16</v>
       </c>
       <c r="C917" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.35">
@@ -15932,10 +15929,10 @@
         <v>1278</v>
       </c>
       <c r="B918" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="C918" t="s">
-        <v>1090</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.35">
@@ -15943,21 +15940,21 @@
         <v>1279</v>
       </c>
       <c r="B919" t="s">
-        <v>213</v>
+        <v>16</v>
       </c>
       <c r="C919" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A920" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B920" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C920" t="s">
-        <v>1281</v>
+        <v>37</v>
       </c>
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.35">
@@ -15965,18 +15962,18 @@
         <v>1282</v>
       </c>
       <c r="B921" t="s">
-        <v>10</v>
-      </c>
-      <c r="C921" t="s">
-        <v>37</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A922" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B922" t="s">
         <v>1283</v>
       </c>
-      <c r="B922" t="s">
-        <v>1284</v>
+      <c r="C922" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.35">
@@ -15984,7 +15981,7 @@
         <v>1285</v>
       </c>
       <c r="B923" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C923" t="s">
         <v>317</v>
@@ -15992,21 +15989,21 @@
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A924" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="B924" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C924" t="s">
-        <v>317</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A925" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="B925" t="s">
-        <v>1284</v>
+        <v>1283</v>
+      </c>
+      <c r="C925" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.35">
@@ -16014,7 +16011,7 @@
         <v>1287</v>
       </c>
       <c r="B926" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C926" t="s">
         <v>317</v>
@@ -16025,10 +16022,7 @@
         <v>1288</v>
       </c>
       <c r="B927" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C927" t="s">
-        <v>317</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="928" spans="1:3" x14ac:dyDescent="0.35">
@@ -16036,7 +16030,7 @@
         <v>1289</v>
       </c>
       <c r="B928" t="s">
-        <v>1284</v>
+        <v>826</v>
       </c>
     </row>
     <row r="929" spans="1:4" x14ac:dyDescent="0.35">
@@ -16054,16 +16048,19 @@
       <c r="B930" t="s">
         <v>826</v>
       </c>
+      <c r="D930" t="s">
+        <v>1292</v>
+      </c>
     </row>
     <row r="931" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A931" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B931" t="s">
         <v>826</v>
       </c>
-      <c r="D931" t="s">
-        <v>1293</v>
+      <c r="C931" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="932" spans="1:4" x14ac:dyDescent="0.35">
@@ -16073,9 +16070,6 @@
       <c r="B932" t="s">
         <v>826</v>
       </c>
-      <c r="C932" t="s">
-        <v>317</v>
-      </c>
     </row>
     <row r="933" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A933" t="s">
@@ -16098,7 +16092,7 @@
         <v>1297</v>
       </c>
       <c r="B935" t="s">
-        <v>826</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.35">
@@ -16106,73 +16100,76 @@
         <v>1298</v>
       </c>
       <c r="B936" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A937" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B937" t="s">
-        <v>1300</v>
+        <v>5</v>
+      </c>
+      <c r="C937" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D937" t="s">
+        <v>1302</v>
       </c>
     </row>
     <row r="938" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A938" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="B938" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C938" t="s">
-        <v>1302</v>
-      </c>
-      <c r="D938" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="939" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A939" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B939" t="s">
         <v>10</v>
       </c>
       <c r="C939" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="940" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A940" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B940" t="s">
         <v>10</v>
       </c>
       <c r="C940" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="941" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A941" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="B941" t="s">
         <v>10</v>
       </c>
       <c r="C941" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="942" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A942" t="s">
-        <v>1305</v>
+        <v>1309</v>
       </c>
       <c r="B942" t="s">
         <v>10</v>
       </c>
       <c r="C942" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="943" spans="1:4" x14ac:dyDescent="0.35">
@@ -16183,7 +16180,7 @@
         <v>10</v>
       </c>
       <c r="C943" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.35">
@@ -16194,18 +16191,18 @@
         <v>10</v>
       </c>
       <c r="C944" t="s">
-        <v>1307</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A945" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B945" t="s">
+        <v>10</v>
+      </c>
+      <c r="C945" t="s">
         <v>1312</v>
-      </c>
-      <c r="B945" t="s">
-        <v>10</v>
-      </c>
-      <c r="C945" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.35">
@@ -16216,7 +16213,7 @@
         <v>10</v>
       </c>
       <c r="C946" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.35">
@@ -16224,20 +16221,17 @@
         <v>1315</v>
       </c>
       <c r="B947" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C947" t="s">
-        <v>1305</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A948" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B948" t="s">
-        <v>5</v>
-      </c>
-      <c r="C948" t="s">
         <v>1317</v>
       </c>
     </row>
@@ -16254,7 +16248,7 @@
         <v>1319</v>
       </c>
       <c r="B950" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.35">
@@ -16262,7 +16256,10 @@
         <v>1320</v>
       </c>
       <c r="B951" t="s">
-        <v>1319</v>
+        <v>1318</v>
+      </c>
+      <c r="C951" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.35">
@@ -16270,10 +16267,10 @@
         <v>1321</v>
       </c>
       <c r="B952" t="s">
-        <v>1319</v>
+        <v>10</v>
       </c>
       <c r="C952" t="s">
-        <v>317</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.35">
@@ -16281,26 +16278,26 @@
         <v>1322</v>
       </c>
       <c r="B953" t="s">
-        <v>10</v>
-      </c>
-      <c r="C953" t="s">
-        <v>1322</v>
+        <v>5</v>
       </c>
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A954" t="s">
-        <v>1323</v>
+        <v>519</v>
       </c>
       <c r="B954" t="s">
-        <v>5</v>
+        <v>519</v>
       </c>
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A955" t="s">
-        <v>519</v>
+        <v>1323</v>
       </c>
       <c r="B955" t="s">
         <v>519</v>
+      </c>
+      <c r="C955" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.35">
@@ -16308,21 +16305,21 @@
         <v>1324</v>
       </c>
       <c r="B956" t="s">
-        <v>519</v>
+        <v>10</v>
       </c>
       <c r="C956" t="s">
-        <v>317</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A957" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B957" t="s">
+        <v>10</v>
+      </c>
+      <c r="C957" t="s">
         <v>1325</v>
-      </c>
-      <c r="B957" t="s">
-        <v>10</v>
-      </c>
-      <c r="C957" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.35">
@@ -16333,7 +16330,7 @@
         <v>10</v>
       </c>
       <c r="C958" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.35">
@@ -16344,23 +16341,20 @@
         <v>10</v>
       </c>
       <c r="C959" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A960" t="s">
-        <v>1329</v>
+        <v>226</v>
       </c>
       <c r="B960" t="s">
-        <v>10</v>
-      </c>
-      <c r="C960" t="s">
-        <v>1330</v>
+        <v>226</v>
       </c>
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A961" t="s">
-        <v>226</v>
+        <v>1330</v>
       </c>
       <c r="B961" t="s">
         <v>226</v>
@@ -16379,7 +16373,7 @@
         <v>1332</v>
       </c>
       <c r="B963" t="s">
-        <v>226</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.35">
@@ -16387,7 +16381,7 @@
         <v>1333</v>
       </c>
       <c r="B964" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.35">
@@ -16395,7 +16389,7 @@
         <v>1334</v>
       </c>
       <c r="B965" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.35">
@@ -16403,7 +16397,10 @@
         <v>1335</v>
       </c>
       <c r="B966" t="s">
-        <v>1335</v>
+        <v>1334</v>
+      </c>
+      <c r="C966" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.35">
@@ -16411,7 +16408,7 @@
         <v>1336</v>
       </c>
       <c r="B967" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C967" t="s">
         <v>317</v>
@@ -16422,10 +16419,7 @@
         <v>1337</v>
       </c>
       <c r="B968" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C968" t="s">
-        <v>317</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.35">
@@ -16433,7 +16427,7 @@
         <v>1338</v>
       </c>
       <c r="B969" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.35">
@@ -16441,26 +16435,29 @@
         <v>1339</v>
       </c>
       <c r="B970" t="s">
-        <v>1335</v>
+        <v>1334</v>
+      </c>
+      <c r="C970" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A971" t="s">
-        <v>1340</v>
+        <v>215</v>
       </c>
       <c r="B971" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C971" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A972" t="s">
-        <v>215</v>
+        <v>1340</v>
       </c>
       <c r="B972" t="s">
         <v>215</v>
+      </c>
+      <c r="C972" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.35">
@@ -16479,10 +16476,10 @@
         <v>1342</v>
       </c>
       <c r="B974" t="s">
-        <v>215</v>
+        <v>5</v>
       </c>
       <c r="C974" t="s">
-        <v>317</v>
+        <v>89</v>
       </c>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.35">
@@ -16493,7 +16490,7 @@
         <v>5</v>
       </c>
       <c r="C975" t="s">
-        <v>89</v>
+        <v>480</v>
       </c>
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.35">
@@ -16504,7 +16501,7 @@
         <v>5</v>
       </c>
       <c r="C976" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="977" spans="1:4" x14ac:dyDescent="0.35">
@@ -16515,7 +16512,7 @@
         <v>5</v>
       </c>
       <c r="C977" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="978" spans="1:4" x14ac:dyDescent="0.35">
@@ -16537,7 +16534,7 @@
         <v>5</v>
       </c>
       <c r="C979" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="980" spans="1:4" x14ac:dyDescent="0.35">
@@ -16548,7 +16545,7 @@
         <v>5</v>
       </c>
       <c r="C980" t="s">
-        <v>486</v>
+        <v>541</v>
       </c>
     </row>
     <row r="981" spans="1:4" x14ac:dyDescent="0.35">
@@ -16559,7 +16556,7 @@
         <v>5</v>
       </c>
       <c r="C981" t="s">
-        <v>541</v>
+        <v>503</v>
       </c>
     </row>
     <row r="982" spans="1:4" x14ac:dyDescent="0.35">
@@ -16570,7 +16567,7 @@
         <v>5</v>
       </c>
       <c r="C982" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="983" spans="1:4" x14ac:dyDescent="0.35">
@@ -16581,7 +16578,7 @@
         <v>5</v>
       </c>
       <c r="C983" t="s">
-        <v>505</v>
+        <v>660</v>
       </c>
     </row>
     <row r="984" spans="1:4" x14ac:dyDescent="0.35">
@@ -16592,7 +16589,7 @@
         <v>5</v>
       </c>
       <c r="C984" t="s">
-        <v>660</v>
+        <v>6</v>
       </c>
     </row>
     <row r="985" spans="1:4" x14ac:dyDescent="0.35">
@@ -16603,21 +16600,21 @@
         <v>5</v>
       </c>
       <c r="C985" t="s">
-        <v>6</v>
+        <v>1354</v>
+      </c>
+      <c r="D985" t="s">
+        <v>1355</v>
       </c>
     </row>
     <row r="986" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A986" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="B986" t="s">
         <v>5</v>
       </c>
       <c r="C986" t="s">
-        <v>1355</v>
-      </c>
-      <c r="D986" t="s">
-        <v>1356</v>
+        <v>537</v>
       </c>
     </row>
     <row r="987" spans="1:4" x14ac:dyDescent="0.35">
@@ -16639,7 +16636,7 @@
         <v>5</v>
       </c>
       <c r="C988" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="989" spans="1:4" x14ac:dyDescent="0.35">
@@ -16650,7 +16647,7 @@
         <v>5</v>
       </c>
       <c r="C989" t="s">
-        <v>541</v>
+        <v>478</v>
       </c>
     </row>
     <row r="990" spans="1:4" x14ac:dyDescent="0.35">
@@ -16661,7 +16658,7 @@
         <v>5</v>
       </c>
       <c r="C990" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="991" spans="1:4" x14ac:dyDescent="0.35">
@@ -16672,7 +16669,7 @@
         <v>5</v>
       </c>
       <c r="C991" t="s">
-        <v>484</v>
+        <v>544</v>
       </c>
     </row>
     <row r="992" spans="1:4" x14ac:dyDescent="0.35">
@@ -16683,7 +16680,7 @@
         <v>5</v>
       </c>
       <c r="C992" t="s">
-        <v>544</v>
+        <v>6</v>
       </c>
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.35">
@@ -16694,7 +16691,7 @@
         <v>5</v>
       </c>
       <c r="C993" t="s">
-        <v>6</v>
+        <v>537</v>
       </c>
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.35">
@@ -16705,7 +16702,7 @@
         <v>5</v>
       </c>
       <c r="C994" t="s">
-        <v>537</v>
+        <v>596</v>
       </c>
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.35">
@@ -16716,7 +16713,7 @@
         <v>5</v>
       </c>
       <c r="C995" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.35">
@@ -16735,10 +16732,7 @@
         <v>1367</v>
       </c>
       <c r="B997" t="s">
-        <v>5</v>
-      </c>
-      <c r="C997" t="s">
-        <v>601</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.35">
@@ -16754,15 +16748,18 @@
         <v>1369</v>
       </c>
       <c r="B999" t="s">
-        <v>1369</v>
+        <v>1370</v>
+      </c>
+      <c r="C999" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1000" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B1000" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="C1000" t="s">
         <v>317</v>
@@ -16773,26 +16770,23 @@
         <v>1372</v>
       </c>
       <c r="B1001" t="s">
-        <v>1369</v>
+        <v>10</v>
       </c>
       <c r="C1001" t="s">
-        <v>317</v>
+        <v>720</v>
       </c>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1002" t="s">
-        <v>1373</v>
+        <v>551</v>
       </c>
       <c r="B1002" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1002" t="s">
-        <v>720</v>
+        <v>551</v>
       </c>
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1003" t="s">
-        <v>551</v>
+        <v>1373</v>
       </c>
       <c r="B1003" t="s">
         <v>551</v>
@@ -16803,7 +16797,7 @@
         <v>1374</v>
       </c>
       <c r="B1004" t="s">
-        <v>551</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.35">
@@ -16835,34 +16829,37 @@
         <v>1378</v>
       </c>
       <c r="B1008" t="s">
-        <v>1378</v>
+        <v>1377</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>1379</v>
       </c>
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1009" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C1009" t="s">
         <v>1379</v>
-      </c>
-      <c r="B1009" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C1009" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1010" t="s">
-        <v>1381</v>
+        <v>523</v>
       </c>
       <c r="B1010" t="s">
-        <v>1378</v>
+        <v>523</v>
       </c>
       <c r="C1010" t="s">
-        <v>1380</v>
+        <v>317</v>
       </c>
     </row>
     <row r="1011" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1011" t="s">
-        <v>523</v>
+        <v>1381</v>
       </c>
       <c r="B1011" t="s">
         <v>523</v>
@@ -16909,10 +16906,7 @@
         <v>1385</v>
       </c>
       <c r="B1015" t="s">
-        <v>523</v>
-      </c>
-      <c r="C1015" t="s">
-        <v>317</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1016" spans="1:3" x14ac:dyDescent="0.35">
@@ -16920,23 +16914,23 @@
         <v>1386</v>
       </c>
       <c r="B1016" t="s">
+        <v>523</v>
+      </c>
+      <c r="C1016" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="1017" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1017" t="s">
-        <v>1387</v>
+        <v>525</v>
       </c>
       <c r="B1017" t="s">
-        <v>523</v>
-      </c>
-      <c r="C1017" t="s">
-        <v>1387</v>
+        <v>525</v>
       </c>
     </row>
     <row r="1018" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1018" t="s">
-        <v>525</v>
+        <v>1387</v>
       </c>
       <c r="B1018" t="s">
         <v>525</v>
@@ -16947,7 +16941,7 @@
         <v>1388</v>
       </c>
       <c r="B1019" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="1020" spans="1:3" x14ac:dyDescent="0.35">
@@ -16957,16 +16951,19 @@
       <c r="B1020" t="s">
         <v>527</v>
       </c>
+      <c r="C1020" t="s">
+        <v>1390</v>
+      </c>
     </row>
     <row r="1021" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1021" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B1021" t="s">
         <v>527</v>
       </c>
       <c r="C1021" t="s">
-        <v>1391</v>
+        <v>317</v>
       </c>
     </row>
     <row r="1022" spans="1:3" x14ac:dyDescent="0.35">
@@ -17007,10 +17004,7 @@
         <v>1395</v>
       </c>
       <c r="B1025" t="s">
-        <v>527</v>
-      </c>
-      <c r="C1025" t="s">
-        <v>317</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.35">
@@ -17018,7 +17012,7 @@
         <v>1396</v>
       </c>
       <c r="B1026" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.35">
@@ -17026,26 +17020,29 @@
         <v>1397</v>
       </c>
       <c r="B1027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1027" t="s">
         <v>1397</v>
       </c>
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1028" t="s">
-        <v>1398</v>
+        <v>847</v>
       </c>
       <c r="B1028" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1028" t="s">
-        <v>1398</v>
+        <v>847</v>
       </c>
     </row>
     <row r="1029" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1029" t="s">
-        <v>848</v>
+        <v>1398</v>
       </c>
       <c r="B1029" t="s">
-        <v>848</v>
+        <v>847</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="1030" spans="1:3" x14ac:dyDescent="0.35">
@@ -17053,10 +17050,7 @@
         <v>1399</v>
       </c>
       <c r="B1030" t="s">
-        <v>848</v>
-      </c>
-      <c r="C1030" t="s">
-        <v>317</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1031" spans="1:3" x14ac:dyDescent="0.35">
@@ -17064,7 +17058,10 @@
         <v>1400</v>
       </c>
       <c r="B1031" t="s">
-        <v>1400</v>
+        <v>1399</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="1032" spans="1:3" x14ac:dyDescent="0.35">
@@ -17072,42 +17069,42 @@
         <v>1401</v>
       </c>
       <c r="B1032" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C1032" t="s">
-        <v>1147</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1033" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1033" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B1033" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1034" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1034" t="s">
-        <v>1404</v>
+        <v>529</v>
       </c>
       <c r="B1034" t="s">
-        <v>1400</v>
+        <v>529</v>
       </c>
     </row>
     <row r="1035" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1035" t="s">
-        <v>529</v>
+        <v>1404</v>
       </c>
       <c r="B1035" t="s">
-        <v>529</v>
+        <v>1405</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="1036" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1036" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1036" t="s">
         <v>1405</v>
-      </c>
-      <c r="B1036" t="s">
-        <v>1406</v>
       </c>
       <c r="C1036" t="s">
         <v>317</v>
@@ -17118,7 +17115,7 @@
         <v>1407</v>
       </c>
       <c r="B1037" t="s">
-        <v>1406</v>
+        <v>527</v>
       </c>
       <c r="C1037" t="s">
         <v>317</v>
@@ -17129,26 +17126,23 @@
         <v>1408</v>
       </c>
       <c r="B1038" t="s">
-        <v>527</v>
+        <v>5</v>
       </c>
       <c r="C1038" t="s">
-        <v>317</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="1039" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1039" t="s">
-        <v>1409</v>
+        <v>776</v>
       </c>
       <c r="B1039" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1039" t="s">
-        <v>1409</v>
+        <v>776</v>
       </c>
     </row>
     <row r="1040" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1040" t="s">
-        <v>776</v>
+        <v>1409</v>
       </c>
       <c r="B1040" t="s">
         <v>776</v>
@@ -17159,18 +17153,21 @@
         <v>1410</v>
       </c>
       <c r="B1041" t="s">
-        <v>776</v>
+        <v>1411</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="1042" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1042" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B1042" t="s">
+        <v>523</v>
+      </c>
+      <c r="C1042" t="s">
         <v>1412</v>
-      </c>
-      <c r="C1042" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="1043" spans="1:3" x14ac:dyDescent="0.35">
@@ -17178,10 +17175,7 @@
         <v>1413</v>
       </c>
       <c r="B1043" t="s">
-        <v>523</v>
-      </c>
-      <c r="C1043" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="1044" spans="1:3" x14ac:dyDescent="0.35">
@@ -17189,7 +17183,7 @@
         <v>1414</v>
       </c>
       <c r="B1044" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="1045" spans="1:3" x14ac:dyDescent="0.35">
@@ -17205,53 +17199,56 @@
         <v>1416</v>
       </c>
       <c r="B1046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1046" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="1047" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1047" t="s">
-        <v>1417</v>
+        <v>13</v>
       </c>
       <c r="B1047" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C1047" t="s">
-        <v>1417</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1048" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1048" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B1048" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1048" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1049" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1049" t="s">
-        <v>34</v>
+        <v>1417</v>
       </c>
       <c r="B1049" t="s">
-        <v>34</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1050" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1050" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B1050" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1051" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1051" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B1051" t="s">
-        <v>1421</v>
+        <v>523</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="1052" spans="1:3" x14ac:dyDescent="0.35">
@@ -17262,7 +17259,7 @@
         <v>523</v>
       </c>
       <c r="C1052" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1053" spans="1:3" x14ac:dyDescent="0.35">
@@ -17273,7 +17270,7 @@
         <v>523</v>
       </c>
       <c r="C1053" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1054" spans="1:3" x14ac:dyDescent="0.35">
@@ -17281,10 +17278,10 @@
         <v>1424</v>
       </c>
       <c r="B1054" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="C1054" t="s">
-        <v>1065</v>
+        <v>317</v>
       </c>
     </row>
     <row r="1055" spans="1:3" x14ac:dyDescent="0.35">
@@ -17292,7 +17289,7 @@
         <v>1425</v>
       </c>
       <c r="B1055" t="s">
-        <v>531</v>
+        <v>1426</v>
       </c>
       <c r="C1055" t="s">
         <v>317</v>
@@ -17300,10 +17297,10 @@
     </row>
     <row r="1056" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1056" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B1056" t="s">
         <v>1426</v>
-      </c>
-      <c r="B1056" t="s">
-        <v>1427</v>
       </c>
       <c r="C1056" t="s">
         <v>317</v>
@@ -17314,10 +17311,10 @@
         <v>1428</v>
       </c>
       <c r="B1057" t="s">
-        <v>1427</v>
+        <v>523</v>
       </c>
       <c r="C1057" t="s">
-        <v>317</v>
+        <v>533</v>
       </c>
     </row>
     <row r="1058" spans="1:3" x14ac:dyDescent="0.35">
@@ -17350,26 +17347,26 @@
         <v>523</v>
       </c>
       <c r="C1060" t="s">
-        <v>533</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1061" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1061" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B1061" t="s">
-        <v>523</v>
+        <v>1434</v>
       </c>
       <c r="C1061" t="s">
-        <v>1433</v>
+        <v>317</v>
       </c>
     </row>
     <row r="1062" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1062" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B1062" t="s">
-        <v>1435</v>
+        <v>535</v>
       </c>
       <c r="C1062" t="s">
         <v>317</v>
@@ -17391,10 +17388,7 @@
         <v>1437</v>
       </c>
       <c r="B1064" t="s">
-        <v>535</v>
-      </c>
-      <c r="C1064" t="s">
-        <v>317</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="1065" spans="1:3" x14ac:dyDescent="0.35">
@@ -17402,7 +17396,10 @@
         <v>1438</v>
       </c>
       <c r="B1065" t="s">
-        <v>1438</v>
+        <v>535</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="1066" spans="1:3" x14ac:dyDescent="0.35">
@@ -17424,18 +17421,15 @@
         <v>535</v>
       </c>
       <c r="C1067" t="s">
-        <v>317</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1068" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1068" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B1068" t="s">
         <v>535</v>
-      </c>
-      <c r="C1068" t="s">
-        <v>1442</v>
       </c>
     </row>
     <row r="1069" spans="1:3" x14ac:dyDescent="0.35">
@@ -17443,20 +17437,20 @@
         <v>1443</v>
       </c>
       <c r="B1069" t="s">
-        <v>535</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1070" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1070" t="s">
-        <v>1444</v>
+        <v>512</v>
       </c>
       <c r="B1070" t="s">
-        <v>1444</v>
+        <v>512</v>
       </c>
     </row>
     <row r="1071" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1071" t="s">
-        <v>512</v>
+        <v>1444</v>
       </c>
       <c r="B1071" t="s">
         <v>512</v>
@@ -17467,18 +17461,21 @@
         <v>1445</v>
       </c>
       <c r="B1072" t="s">
-        <v>512</v>
+        <v>10</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>1446</v>
       </c>
     </row>
     <row r="1073" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1073" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1073" t="s">
         <v>1446</v>
-      </c>
-      <c r="B1073" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1073" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="1074" spans="1:3" x14ac:dyDescent="0.35">
@@ -17489,12 +17486,12 @@
         <v>10</v>
       </c>
       <c r="C1074" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1075" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1075" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B1075" t="s">
         <v>10</v>
@@ -17511,7 +17508,7 @@
         <v>10</v>
       </c>
       <c r="C1076" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1077" spans="1:3" x14ac:dyDescent="0.35">
@@ -17519,10 +17516,7 @@
         <v>1452</v>
       </c>
       <c r="B1077" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1077" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1078" spans="1:3" x14ac:dyDescent="0.35">
@@ -17530,18 +17524,21 @@
         <v>1453</v>
       </c>
       <c r="B1078" t="s">
-        <v>1453</v>
+        <v>1452</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>1454</v>
       </c>
     </row>
     <row r="1079" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1079" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B1079" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C1079" t="s">
-        <v>1455</v>
+        <v>317</v>
       </c>
     </row>
     <row r="1080" spans="1:3" x14ac:dyDescent="0.35">
@@ -17549,7 +17546,7 @@
         <v>1456</v>
       </c>
       <c r="B1080" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C1080" t="s">
         <v>317</v>
@@ -17560,7 +17557,7 @@
         <v>1457</v>
       </c>
       <c r="B1081" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C1081" t="s">
         <v>317</v>
@@ -17571,7 +17568,7 @@
         <v>1458</v>
       </c>
       <c r="B1082" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C1082" t="s">
         <v>317</v>
@@ -17582,7 +17579,7 @@
         <v>1459</v>
       </c>
       <c r="B1083" t="s">
-        <v>1453</v>
+        <v>1460</v>
       </c>
       <c r="C1083" t="s">
         <v>317</v>
@@ -17590,10 +17587,10 @@
     </row>
     <row r="1084" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1084" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B1084" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="C1084" t="s">
         <v>317</v>
@@ -17601,13 +17598,10 @@
     </row>
     <row r="1085" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1085" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B1085" t="s">
         <v>1462</v>
-      </c>
-      <c r="B1085" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C1085" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="1086" spans="1:3" x14ac:dyDescent="0.35">
@@ -17615,15 +17609,18 @@
         <v>1464</v>
       </c>
       <c r="B1086" t="s">
-        <v>1463</v>
+        <v>1465</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="1087" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1087" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B1087" t="s">
         <v>1465</v>
-      </c>
-      <c r="B1087" t="s">
-        <v>1466</v>
       </c>
       <c r="C1087" t="s">
         <v>317</v>
@@ -17634,10 +17631,10 @@
         <v>1467</v>
       </c>
       <c r="B1088" t="s">
-        <v>1466</v>
+        <v>5</v>
       </c>
       <c r="C1088" t="s">
-        <v>317</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="1089" spans="1:4" x14ac:dyDescent="0.35">
@@ -17645,9 +17642,6 @@
         <v>1468</v>
       </c>
       <c r="B1089" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1089" t="s">
         <v>1468</v>
       </c>
     </row>
@@ -17656,7 +17650,10 @@
         <v>1469</v>
       </c>
       <c r="B1090" t="s">
-        <v>1469</v>
+        <v>1465</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="1091" spans="1:4" x14ac:dyDescent="0.35">
@@ -17664,7 +17661,7 @@
         <v>1470</v>
       </c>
       <c r="B1091" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C1091" t="s">
         <v>317</v>
@@ -17675,34 +17672,31 @@
         <v>1471</v>
       </c>
       <c r="B1092" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C1092" t="s">
-        <v>317</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="1093" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1093" t="s">
-        <v>1472</v>
+        <v>223</v>
       </c>
       <c r="B1093" t="s">
-        <v>1472</v>
+        <v>223</v>
       </c>
     </row>
     <row r="1094" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1094" t="s">
-        <v>223</v>
+        <v>1472</v>
       </c>
       <c r="B1094" t="s">
-        <v>223</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1095" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1095" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B1095" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1096" spans="1:4" x14ac:dyDescent="0.35">
@@ -17710,7 +17704,7 @@
         <v>1475</v>
       </c>
       <c r="B1096" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1097" spans="1:4" x14ac:dyDescent="0.35">
@@ -17718,7 +17712,7 @@
         <v>1476</v>
       </c>
       <c r="B1097" t="s">
-        <v>1476</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1098" spans="1:4" x14ac:dyDescent="0.35">
@@ -17726,7 +17720,7 @@
         <v>1477</v>
       </c>
       <c r="B1098" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1099" spans="1:4" x14ac:dyDescent="0.35">
@@ -17734,17 +17728,17 @@
         <v>1478</v>
       </c>
       <c r="B1099" t="s">
-        <v>1400</v>
+        <v>1478</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>1479</v>
       </c>
     </row>
     <row r="1100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1100" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B1100" t="s">
-        <v>1479</v>
-      </c>
-      <c r="D1100" t="s">
         <v>1480</v>
       </c>
     </row>
@@ -17761,7 +17755,7 @@
         <v>1482</v>
       </c>
       <c r="B1102" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="1103" spans="1:4" x14ac:dyDescent="0.35">
@@ -17769,7 +17763,10 @@
         <v>1483</v>
       </c>
       <c r="B1103" t="s">
-        <v>1482</v>
+        <v>5</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="1104" spans="1:4" x14ac:dyDescent="0.35">
@@ -17777,10 +17774,10 @@
         <v>1484</v>
       </c>
       <c r="B1104" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C1104" t="s">
-        <v>537</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1105" spans="1:4" x14ac:dyDescent="0.35">
@@ -17788,18 +17785,15 @@
         <v>1485</v>
       </c>
       <c r="B1105" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1105" t="s">
-        <v>1305</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="1106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1106" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B1106" t="s">
         <v>1486</v>
-      </c>
-      <c r="B1106" t="s">
-        <v>1487</v>
       </c>
     </row>
     <row r="1107" spans="1:4" x14ac:dyDescent="0.35">
@@ -17807,7 +17801,10 @@
         <v>1488</v>
       </c>
       <c r="B1107" t="s">
-        <v>1487</v>
+        <v>10</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="1108" spans="1:4" x14ac:dyDescent="0.35">
@@ -17818,7 +17815,7 @@
         <v>10</v>
       </c>
       <c r="C1108" t="s">
-        <v>37</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1109" spans="1:4" x14ac:dyDescent="0.35">
@@ -17829,7 +17826,7 @@
         <v>10</v>
       </c>
       <c r="C1109" t="s">
-        <v>469</v>
+        <v>757</v>
       </c>
     </row>
     <row r="1110" spans="1:4" x14ac:dyDescent="0.35">
@@ -17840,7 +17837,7 @@
         <v>10</v>
       </c>
       <c r="C1110" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
     </row>
     <row r="1111" spans="1:4" x14ac:dyDescent="0.35">
@@ -17851,7 +17848,7 @@
         <v>10</v>
       </c>
       <c r="C1111" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
     </row>
     <row r="1112" spans="1:4" x14ac:dyDescent="0.35">
@@ -17862,7 +17859,7 @@
         <v>10</v>
       </c>
       <c r="C1112" t="s">
-        <v>767</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1113" spans="1:4" x14ac:dyDescent="0.35">
@@ -17873,7 +17870,7 @@
         <v>10</v>
       </c>
       <c r="C1113" t="s">
-        <v>835</v>
+        <v>863</v>
       </c>
     </row>
     <row r="1114" spans="1:4" x14ac:dyDescent="0.35">
@@ -17884,18 +17881,18 @@
         <v>10</v>
       </c>
       <c r="C1114" t="s">
-        <v>864</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="1115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1115" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B1115" t="s">
         <v>10</v>
       </c>
       <c r="C1115" t="s">
-        <v>1497</v>
+        <v>449</v>
       </c>
     </row>
     <row r="1116" spans="1:4" x14ac:dyDescent="0.35">
@@ -17917,7 +17914,7 @@
         <v>10</v>
       </c>
       <c r="C1117" t="s">
-        <v>449</v>
+        <v>941</v>
       </c>
     </row>
     <row r="1118" spans="1:4" x14ac:dyDescent="0.35">
@@ -17928,7 +17925,10 @@
         <v>10</v>
       </c>
       <c r="C1118" t="s">
-        <v>942</v>
+        <v>438</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="1119" spans="1:4" x14ac:dyDescent="0.35">
@@ -17939,21 +17939,18 @@
         <v>10</v>
       </c>
       <c r="C1119" t="s">
-        <v>438</v>
-      </c>
-      <c r="D1119" t="s">
-        <v>964</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="1120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1120" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B1120" t="s">
         <v>10</v>
       </c>
       <c r="C1120" t="s">
-        <v>1503</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1121" spans="1:3" x14ac:dyDescent="0.35">
@@ -17964,7 +17961,7 @@
         <v>10</v>
       </c>
       <c r="C1121" t="s">
-        <v>979</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1122" spans="1:3" x14ac:dyDescent="0.35">
@@ -17975,7 +17972,7 @@
         <v>10</v>
       </c>
       <c r="C1122" t="s">
-        <v>992</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="1123" spans="1:3" x14ac:dyDescent="0.35">
@@ -17986,7 +17983,7 @@
         <v>10</v>
       </c>
       <c r="C1123" t="s">
-        <v>1045</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1124" spans="1:3" x14ac:dyDescent="0.35">
@@ -17997,7 +17994,7 @@
         <v>10</v>
       </c>
       <c r="C1124" t="s">
-        <v>37</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1125" spans="1:3" x14ac:dyDescent="0.35">
@@ -18008,7 +18005,7 @@
         <v>10</v>
       </c>
       <c r="C1125" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1126" spans="1:3" x14ac:dyDescent="0.35">
@@ -18019,18 +18016,18 @@
         <v>10</v>
       </c>
       <c r="C1126" t="s">
-        <v>1070</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="1127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1127" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B1127" t="s">
         <v>10</v>
       </c>
       <c r="C1127" t="s">
-        <v>1511</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1128" spans="1:3" x14ac:dyDescent="0.35">
@@ -18041,51 +18038,51 @@
         <v>10</v>
       </c>
       <c r="C1128" t="s">
-        <v>1072</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1129" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B1129" t="s">
         <v>10</v>
       </c>
       <c r="C1129" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="1130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1130" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B1130" t="s">
         <v>10</v>
       </c>
       <c r="C1130" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1131" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B1131" t="s">
         <v>10</v>
       </c>
       <c r="C1131" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="1132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1132" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B1132" t="s">
         <v>10</v>
       </c>
       <c r="C1132" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="1133" spans="1:3" x14ac:dyDescent="0.35">
@@ -18096,7 +18093,7 @@
         <v>10</v>
       </c>
       <c r="C1133" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="1134" spans="1:3" x14ac:dyDescent="0.35">
@@ -18107,29 +18104,29 @@
         <v>10</v>
       </c>
       <c r="C1134" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="1135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1135" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B1135" t="s">
         <v>10</v>
       </c>
       <c r="C1135" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="1136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1136" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1136" t="s">
         <v>1525</v>
-      </c>
-      <c r="B1136" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1136" t="s">
-        <v>1526</v>
       </c>
     </row>
     <row r="1137" spans="1:3" x14ac:dyDescent="0.35">
@@ -18140,7 +18137,7 @@
         <v>10</v>
       </c>
       <c r="C1137" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="1138" spans="1:3" x14ac:dyDescent="0.35">
@@ -18151,7 +18148,7 @@
         <v>10</v>
       </c>
       <c r="C1138" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="1139" spans="1:3" x14ac:dyDescent="0.35">
@@ -18159,10 +18156,10 @@
         <v>1529</v>
       </c>
       <c r="B1139" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C1139" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="1140" spans="1:3" x14ac:dyDescent="0.35">
@@ -18173,7 +18170,7 @@
         <v>44</v>
       </c>
       <c r="C1140" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="1141" spans="1:3" x14ac:dyDescent="0.35">
@@ -18181,10 +18178,10 @@
         <v>1531</v>
       </c>
       <c r="B1141" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C1141" t="s">
-        <v>1530</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1142" spans="1:3" x14ac:dyDescent="0.35">
@@ -18195,7 +18192,7 @@
         <v>5</v>
       </c>
       <c r="C1142" t="s">
-        <v>280</v>
+        <v>686</v>
       </c>
     </row>
     <row r="1143" spans="1:3" x14ac:dyDescent="0.35">
@@ -18214,32 +18211,32 @@
         <v>1534</v>
       </c>
       <c r="B1144" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C1144" t="s">
-        <v>686</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1145" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B1145" t="s">
         <v>10</v>
       </c>
       <c r="C1145" t="s">
-        <v>1536</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1146" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1146" t="s">
         <v>1537</v>
-      </c>
-      <c r="B1146" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1146" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="1147" spans="1:3" x14ac:dyDescent="0.35">
@@ -18247,26 +18244,26 @@
         <v>1538</v>
       </c>
       <c r="B1147" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1147" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1148" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B1148" t="s">
-        <v>1540</v>
+        <v>10</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>1539</v>
       </c>
     </row>
     <row r="1149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1149" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B1149" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C1149" t="s">
         <v>1541</v>
@@ -18274,46 +18271,46 @@
     </row>
     <row r="1150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1150" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B1150" t="s">
         <v>44</v>
       </c>
       <c r="C1150" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="1151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1151" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B1151" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C1151" t="s">
-        <v>1543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="1152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1152" t="s">
-        <v>1544</v>
+        <v>1449</v>
       </c>
       <c r="B1152" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C1152" t="s">
-        <v>544</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1153" t="s">
-        <v>1450</v>
+        <v>1543</v>
       </c>
       <c r="B1153" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1153" t="s">
-        <v>1450</v>
+        <v>575</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>1544</v>
       </c>
     </row>
     <row r="1154" spans="1:4" x14ac:dyDescent="0.35">
@@ -18323,27 +18320,27 @@
       <c r="B1154" t="s">
         <v>575</v>
       </c>
-      <c r="D1154" t="s">
-        <v>1546</v>
+      <c r="C1154" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="1155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1155" t="s">
-        <v>1547</v>
+        <v>575</v>
       </c>
       <c r="B1155" t="s">
         <v>575</v>
       </c>
-      <c r="C1155" t="s">
-        <v>833</v>
-      </c>
     </row>
     <row r="1156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1156" t="s">
-        <v>575</v>
+        <v>1546</v>
       </c>
       <c r="B1156" t="s">
         <v>575</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>1547</v>
       </c>
     </row>
     <row r="1157" spans="1:4" x14ac:dyDescent="0.35">
@@ -18354,29 +18351,29 @@
         <v>575</v>
       </c>
       <c r="C1157" t="s">
-        <v>1549</v>
+        <v>832</v>
       </c>
     </row>
     <row r="1158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1158" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B1158" t="s">
-        <v>575</v>
+        <v>61</v>
       </c>
       <c r="C1158" t="s">
-        <v>833</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1159" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B1159" t="s">
         <v>61</v>
       </c>
       <c r="C1159" t="s">
-        <v>976</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1160" spans="1:4" x14ac:dyDescent="0.35">
@@ -18384,144 +18381,144 @@
         <v>1552</v>
       </c>
       <c r="B1160" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C1160" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="1161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1161" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B1161" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C1161" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1162" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B1162" t="s">
         <v>10</v>
       </c>
       <c r="C1162" t="s">
-        <v>1555</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1163" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1163" t="s">
         <v>1556</v>
-      </c>
-      <c r="B1163" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1163" t="s">
-        <v>1451</v>
       </c>
     </row>
     <row r="1164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1164" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1164" t="s">
         <v>1557</v>
-      </c>
-      <c r="B1164" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1164" t="s">
-        <v>1558</v>
       </c>
     </row>
     <row r="1165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1165" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B1165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1165" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1166" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="B1166" t="s">
-        <v>1561</v>
+        <v>10</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>1560</v>
       </c>
     </row>
     <row r="1167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1167" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="B1167" t="s">
         <v>10</v>
       </c>
       <c r="C1167" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1168" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1169" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1170" t="s">
         <v>1563</v>
       </c>
-      <c r="B1168" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1168" t="s">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="1169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1169" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B1169" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1169" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D1169" t="s">
+      <c r="B1170" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1170" t="s">
         <v>1564</v>
       </c>
     </row>
-    <row r="1170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1170" t="s">
+    <row r="1171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1171" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1172" t="s">
         <v>1565</v>
       </c>
-      <c r="B1170" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="1171" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1171" t="s">
+      <c r="B1172" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1173" t="s">
         <v>1566</v>
-      </c>
-      <c r="B1171" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1171" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="1172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1172" t="s">
-        <v>1567</v>
-      </c>
-      <c r="B1172" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1172" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="1173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1173" t="s">
-        <v>1568</v>
       </c>
       <c r="B1173" t="s">
         <v>10</v>
@@ -18530,83 +18527,83 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="1174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1174" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1174" t="s">
         <v>1569</v>
       </c>
-      <c r="B1174" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1174" t="s">
+    </row>
+    <row r="1175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1175" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="1175" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1175" t="s">
+      <c r="B1175" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1176" t="s">
         <v>1571</v>
       </c>
-      <c r="B1175" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1175" t="s">
+      <c r="B1176" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="1176" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1176" t="s">
+    <row r="1177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1177" t="s">
         <v>1573</v>
       </c>
-      <c r="B1176" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1176" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="1177" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1177" t="s">
+      <c r="B1177" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1177" t="s">
         <v>1574</v>
       </c>
-      <c r="B1177" t="s">
+    </row>
+    <row r="1178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1178" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="1178" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1178" t="s">
+      <c r="B1178" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1178" t="s">
         <v>1576</v>
       </c>
-      <c r="B1178" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1178" t="s">
+    </row>
+    <row r="1179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1179" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="1179" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1179" t="s">
+      <c r="B1179" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1180" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1181" t="s">
         <v>1578</v>
-      </c>
-      <c r="B1179" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1179" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="1180" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1180" t="s">
-        <v>1580</v>
-      </c>
-      <c r="B1180" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1180" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="1181" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1181" t="s">
-        <v>1579</v>
       </c>
       <c r="B1181" t="s">
         <v>10</v>
@@ -18615,160 +18612,160 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="1182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1182" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1182" t="s">
         <v>1581</v>
       </c>
-      <c r="B1182" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1182" t="s">
+    </row>
+    <row r="1183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1183" t="s">
         <v>1582</v>
       </c>
-    </row>
-    <row r="1183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1183" t="s">
+      <c r="B1183" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1183" t="s">
         <v>1583</v>
       </c>
-      <c r="B1183" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1183" t="s">
+    </row>
+    <row r="1184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1184" t="s">
         <v>1584</v>
       </c>
-    </row>
-    <row r="1184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1184" t="s">
+      <c r="B1184" t="s">
         <v>1585</v>
-      </c>
-      <c r="B1184" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1184" t="s">
-        <v>1586</v>
       </c>
     </row>
     <row r="1185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1185" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C1185" t="s">
         <v>1587</v>
-      </c>
-      <c r="B1185" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="1186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1186" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B1186" t="s">
-        <v>1588</v>
+        <v>10</v>
       </c>
       <c r="C1186" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="1187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1187" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
       <c r="B1187" t="s">
         <v>10</v>
       </c>
       <c r="C1187" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="1188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1188" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="B1188" t="s">
         <v>10</v>
       </c>
       <c r="C1188" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="1189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1189" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="B1189" t="s">
         <v>10</v>
       </c>
       <c r="C1189" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="1190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1190" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B1190" t="s">
         <v>10</v>
       </c>
       <c r="C1190" t="s">
-        <v>1586</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1191" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1191" t="s">
         <v>1594</v>
-      </c>
-      <c r="B1191" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1191" t="s">
-        <v>1595</v>
       </c>
     </row>
     <row r="1192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1192" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B1192" t="s">
         <v>161</v>
       </c>
       <c r="C1192" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1193" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="B1193" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="C1193" t="s">
-        <v>1597</v>
+        <v>455</v>
       </c>
     </row>
     <row r="1194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1194" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="B1194" t="s">
         <v>10</v>
       </c>
       <c r="C1194" t="s">
-        <v>455</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1195" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B1195" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1195" t="s">
-        <v>1601</v>
+        <v>209</v>
       </c>
     </row>
     <row r="1196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1196" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="B1196" t="s">
         <v>5</v>
@@ -18779,86 +18776,83 @@
     </row>
     <row r="1197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1197" t="s">
-        <v>1603</v>
+        <v>16</v>
       </c>
       <c r="B1197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1197" t="s">
-        <v>209</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1198" t="s">
-        <v>16</v>
+        <v>1601</v>
       </c>
       <c r="B1198" t="s">
         <v>16</v>
       </c>
+      <c r="C1198" t="s">
+        <v>1602</v>
+      </c>
     </row>
     <row r="1199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1199" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B1199" t="s">
         <v>16</v>
       </c>
       <c r="C1199" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1200" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B1200" t="s">
         <v>16</v>
       </c>
       <c r="C1200" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1201" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B1201" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1201" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1202" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="B1202" t="s">
-        <v>1610</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1203" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="B1203" t="s">
         <v>44</v>
       </c>
+      <c r="C1203" t="s">
+        <v>898</v>
+      </c>
     </row>
     <row r="1204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1204" t="s">
-        <v>1612</v>
+        <v>44</v>
       </c>
       <c r="B1204" t="s">
         <v>44</v>
       </c>
-      <c r="C1204" t="s">
-        <v>899</v>
-      </c>
     </row>
     <row r="1205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1205" t="s">
-        <v>44</v>
+        <v>1610</v>
       </c>
       <c r="B1205" t="s">
         <v>44</v>
@@ -18866,7 +18860,7 @@
     </row>
     <row r="1206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1206" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="B1206" t="s">
         <v>44</v>
@@ -18874,37 +18868,40 @@
     </row>
     <row r="1207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1207" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B1207" t="s">
         <v>44</v>
       </c>
+      <c r="C1207" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="1208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1208" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="B1208" t="s">
         <v>44</v>
       </c>
       <c r="C1208" t="s">
-        <v>730</v>
+        <v>831</v>
       </c>
     </row>
     <row r="1209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1209" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="B1209" t="s">
         <v>44</v>
       </c>
       <c r="C1209" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="1210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1210" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="B1210" t="s">
         <v>44</v>
@@ -18915,139 +18912,136 @@
     </row>
     <row r="1211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1211" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="B1211" t="s">
         <v>44</v>
       </c>
       <c r="C1211" t="s">
-        <v>833</v>
+        <v>894</v>
       </c>
     </row>
     <row r="1212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1212" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="B1212" t="s">
         <v>44</v>
       </c>
       <c r="C1212" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
     </row>
     <row r="1213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1213" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="B1213" t="s">
         <v>44</v>
       </c>
       <c r="C1213" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="1214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1214" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="B1214" t="s">
         <v>44</v>
       </c>
       <c r="C1214" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="1215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1215" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="B1215" t="s">
         <v>44</v>
       </c>
       <c r="C1215" t="s">
-        <v>899</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1216" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B1216" t="s">
         <v>44</v>
       </c>
       <c r="C1216" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1217" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="B1217" t="s">
         <v>44</v>
       </c>
       <c r="C1217" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1218" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="B1218" t="s">
         <v>44</v>
       </c>
       <c r="C1218" t="s">
-        <v>990</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1219" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B1219" t="s">
         <v>44</v>
       </c>
       <c r="C1219" t="s">
-        <v>1627</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1220" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="B1220" t="s">
         <v>44</v>
       </c>
       <c r="C1220" t="s">
-        <v>1003</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1221" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="B1221" t="s">
         <v>44</v>
       </c>
       <c r="C1221" t="s">
-        <v>1176</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1222" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="B1222" t="s">
         <v>44</v>
       </c>
-      <c r="C1222" t="s">
-        <v>1184</v>
-      </c>
     </row>
     <row r="1223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1223" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="B1223" t="s">
         <v>44</v>
@@ -19055,7 +19049,7 @@
     </row>
     <row r="1224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1224" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="B1224" t="s">
         <v>44</v>
@@ -19063,7 +19057,7 @@
     </row>
     <row r="1225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1225" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="B1225" t="s">
         <v>44</v>
@@ -19071,7 +19065,7 @@
     </row>
     <row r="1226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1226" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="B1226" t="s">
         <v>44</v>
@@ -19079,7 +19073,7 @@
     </row>
     <row r="1227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1227" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="B1227" t="s">
         <v>44</v>
@@ -19087,7 +19081,7 @@
     </row>
     <row r="1228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1228" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="B1228" t="s">
         <v>44</v>
@@ -19095,7 +19089,7 @@
     </row>
     <row r="1229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1229" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="B1229" t="s">
         <v>44</v>
@@ -19103,7 +19097,7 @@
     </row>
     <row r="1230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1230" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="B1230" t="s">
         <v>44</v>
@@ -19111,7 +19105,7 @@
     </row>
     <row r="1231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1231" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="B1231" t="s">
         <v>44</v>
@@ -19119,37 +19113,37 @@
     </row>
     <row r="1232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1232" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="B1232" t="s">
         <v>44</v>
       </c>
+      <c r="C1232" t="s">
+        <v>1639</v>
+      </c>
     </row>
     <row r="1233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1233" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B1233" t="s">
         <v>44</v>
       </c>
       <c r="C1233" t="s">
-        <v>1642</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1234" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="B1234" t="s">
         <v>44</v>
       </c>
-      <c r="C1234" t="s">
-        <v>1184</v>
-      </c>
     </row>
     <row r="1235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1235" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="B1235" t="s">
         <v>44</v>
@@ -19157,48 +19151,48 @@
     </row>
     <row r="1236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1236" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="B1236" t="s">
         <v>44</v>
       </c>
+      <c r="C1236" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="1237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1237" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="B1237" t="s">
         <v>44</v>
       </c>
       <c r="C1237" t="s">
-        <v>833</v>
+        <v>898</v>
       </c>
     </row>
     <row r="1238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1238" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="B1238" t="s">
         <v>44</v>
       </c>
       <c r="C1238" t="s">
-        <v>899</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1239" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="B1239" t="s">
         <v>44</v>
       </c>
-      <c r="C1239" t="s">
-        <v>1184</v>
-      </c>
     </row>
     <row r="1240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1240" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="B1240" t="s">
         <v>44</v>
@@ -19206,48 +19200,48 @@
     </row>
     <row r="1241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1241" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="B1241" t="s">
         <v>44</v>
       </c>
+      <c r="C1241" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="1242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1242" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="B1242" t="s">
         <v>44</v>
       </c>
       <c r="C1242" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="1243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1243" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="B1243" t="s">
         <v>44</v>
       </c>
       <c r="C1243" t="s">
-        <v>730</v>
+        <v>832</v>
       </c>
     </row>
     <row r="1244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1244" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="B1244" t="s">
         <v>44</v>
       </c>
-      <c r="C1244" t="s">
-        <v>833</v>
-      </c>
     </row>
     <row r="1245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1245" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="B1245" t="s">
         <v>44</v>
@@ -19255,7 +19249,7 @@
     </row>
     <row r="1246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1246" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="B1246" t="s">
         <v>44</v>
@@ -19263,7 +19257,7 @@
     </row>
     <row r="1247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1247" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="B1247" t="s">
         <v>44</v>
@@ -19271,7 +19265,7 @@
     </row>
     <row r="1248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1248" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="B1248" t="s">
         <v>44</v>
@@ -19279,7 +19273,7 @@
     </row>
     <row r="1249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1249" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="B1249" t="s">
         <v>44</v>
@@ -19287,7 +19281,7 @@
     </row>
     <row r="1250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1250" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="B1250" t="s">
         <v>44</v>
@@ -19295,7 +19289,7 @@
     </row>
     <row r="1251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1251" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="B1251" t="s">
         <v>44</v>
@@ -19303,7 +19297,7 @@
     </row>
     <row r="1252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1252" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="B1252" t="s">
         <v>44</v>
@@ -19311,7 +19305,7 @@
     </row>
     <row r="1253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1253" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="B1253" t="s">
         <v>44</v>
@@ -19319,48 +19313,51 @@
     </row>
     <row r="1254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1254" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="B1254" t="s">
         <v>44</v>
       </c>
+      <c r="C1254" t="s">
+        <v>1541</v>
+      </c>
     </row>
     <row r="1255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1255" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="B1255" t="s">
         <v>44</v>
       </c>
       <c r="C1255" t="s">
-        <v>1543</v>
+        <v>733</v>
       </c>
     </row>
     <row r="1256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1256" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="B1256" t="s">
         <v>44</v>
       </c>
       <c r="C1256" t="s">
-        <v>733</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1257" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B1257" t="s">
         <v>44</v>
       </c>
       <c r="C1257" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1258" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="B1258" t="s">
         <v>44</v>
@@ -19371,18 +19368,18 @@
     </row>
     <row r="1259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1259" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B1259" t="s">
         <v>44</v>
       </c>
       <c r="C1259" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1260" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="B1260" t="s">
         <v>44</v>
@@ -19393,106 +19390,106 @@
     </row>
     <row r="1261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1261" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B1261" t="s">
         <v>44</v>
       </c>
       <c r="C1261" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1262" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B1262" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1262" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1263" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="B1263" t="s">
-        <v>1676</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="1264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1264" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="B1264" t="s">
-        <v>1469</v>
+        <v>10</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>1676</v>
       </c>
     </row>
     <row r="1265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1265" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B1265" t="s">
         <v>10</v>
       </c>
       <c r="C1265" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1266" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="B1266" t="s">
         <v>10</v>
       </c>
       <c r="C1266" t="s">
-        <v>1679</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1267" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="B1267" t="s">
         <v>10</v>
       </c>
       <c r="C1267" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="1268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1268" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="B1268" t="s">
         <v>10</v>
       </c>
       <c r="C1268" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1269" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="B1269" t="s">
         <v>10</v>
       </c>
       <c r="C1269" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="1270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1270" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C1270" t="s">
         <v>1684</v>
-      </c>
-      <c r="B1270" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1270" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="1271" spans="1:3" x14ac:dyDescent="0.35">
@@ -19500,144 +19497,144 @@
         <v>1685</v>
       </c>
       <c r="B1271" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1271" t="s">
         <v>1686</v>
-      </c>
-      <c r="C1271" t="s">
-        <v>1687</v>
       </c>
     </row>
     <row r="1272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1272" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B1272" t="s">
         <v>5</v>
       </c>
       <c r="C1272" t="s">
-        <v>1689</v>
+        <v>601</v>
       </c>
     </row>
     <row r="1273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1273" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="B1273" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1273" t="s">
-        <v>601</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1274" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B1274" t="s">
-        <v>1692</v>
+        <v>61</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="1275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1275" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="B1275" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C1275" t="s">
-        <v>1553</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1276" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B1276" t="s">
         <v>10</v>
       </c>
       <c r="C1276" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1277" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="B1277" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1277" t="s">
-        <v>1695</v>
+        <v>959</v>
       </c>
     </row>
     <row r="1278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1278" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="B1278" t="s">
         <v>5</v>
       </c>
       <c r="C1278" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="1279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1279" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="B1279" t="s">
         <v>5</v>
       </c>
       <c r="C1279" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="1280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1280" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="B1280" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C1280" t="s">
-        <v>960</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1281" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B1281" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C1281" t="s">
-        <v>1701</v>
+        <v>959</v>
       </c>
     </row>
     <row r="1282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1282" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="B1282" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C1282" t="s">
-        <v>960</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1283" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B1283" t="s">
         <v>44</v>
       </c>
       <c r="C1283" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1284" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="B1284" t="s">
         <v>44</v>
@@ -19648,386 +19645,386 @@
     </row>
     <row r="1285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1285" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B1285" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C1285" t="s">
-        <v>1707</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1286" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="B1286" t="s">
         <v>61</v>
       </c>
       <c r="C1286" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1287" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="B1287" t="s">
         <v>61</v>
       </c>
       <c r="C1287" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1288" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="B1288" t="s">
         <v>61</v>
       </c>
       <c r="C1288" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1289" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="B1289" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C1289" t="s">
-        <v>1553</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1290" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1290" t="s">
         <v>1712</v>
-      </c>
-      <c r="B1290" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1290" t="s">
-        <v>1713</v>
       </c>
     </row>
     <row r="1291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1291" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B1291" t="s">
         <v>5</v>
       </c>
       <c r="C1291" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1292" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="B1292" t="s">
         <v>5</v>
       </c>
       <c r="C1292" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1293" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="B1293" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C1293" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1294" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B1294" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C1294" t="s">
-        <v>1719</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1295" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="B1295" t="s">
         <v>10</v>
       </c>
       <c r="C1295" t="s">
-        <v>1713</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="1296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1296" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B1296" t="s">
         <v>1721</v>
-      </c>
-      <c r="B1296" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1296" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="1297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1297" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1297" t="s">
         <v>1723</v>
-      </c>
-      <c r="B1297" t="s">
-        <v>1724</v>
       </c>
     </row>
     <row r="1298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1298" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1298" t="s">
         <v>1725</v>
-      </c>
-      <c r="B1298" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1298" t="s">
-        <v>1726</v>
       </c>
     </row>
     <row r="1299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1299" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B1299" t="s">
         <v>1727</v>
-      </c>
-      <c r="B1299" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1299" t="s">
-        <v>1728</v>
       </c>
     </row>
     <row r="1300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1300" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1300" t="s">
         <v>1729</v>
-      </c>
-      <c r="B1300" t="s">
-        <v>1730</v>
       </c>
     </row>
     <row r="1301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1301" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B1301" t="s">
         <v>10</v>
       </c>
       <c r="C1301" t="s">
-        <v>1732</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="1302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1302" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="B1302" t="s">
         <v>10</v>
       </c>
       <c r="C1302" t="s">
-        <v>1722</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1303" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1303" t="s">
         <v>1734</v>
-      </c>
-      <c r="B1303" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1303" t="s">
-        <v>1735</v>
       </c>
     </row>
     <row r="1304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1304" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="B1304" t="s">
         <v>213</v>
       </c>
       <c r="C1304" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1305" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="B1305" t="s">
         <v>213</v>
       </c>
       <c r="C1305" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1306" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="B1306" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1306" t="s">
         <v>1737</v>
       </c>
     </row>
     <row r="1307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1307" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1307" t="s">
         <v>1739</v>
-      </c>
-      <c r="B1307" t="s">
-        <v>1740</v>
       </c>
     </row>
     <row r="1308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1308" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1308" t="s">
         <v>1741</v>
-      </c>
-      <c r="B1308" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1308" t="s">
-        <v>1742</v>
       </c>
     </row>
     <row r="1309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1309" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1309" t="s">
         <v>1743</v>
-      </c>
-      <c r="B1309" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1309" t="s">
-        <v>1744</v>
       </c>
     </row>
     <row r="1310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1310" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B1310" t="s">
         <v>5</v>
       </c>
       <c r="C1310" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1311" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="B1311" t="s">
         <v>5</v>
       </c>
       <c r="C1311" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1312" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="B1312" t="s">
-        <v>5</v>
+        <v>872</v>
       </c>
       <c r="C1312" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1313" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1313" t="s">
         <v>1749</v>
-      </c>
-      <c r="B1313" t="s">
-        <v>873</v>
-      </c>
-      <c r="C1313" t="s">
-        <v>1750</v>
       </c>
     </row>
     <row r="1314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1314" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1314" t="s">
         <v>1751</v>
-      </c>
-      <c r="B1314" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1314" t="s">
-        <v>1752</v>
       </c>
     </row>
     <row r="1315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1315" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1315" t="s">
         <v>1753</v>
-      </c>
-      <c r="B1315" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1315" t="s">
-        <v>1754</v>
       </c>
     </row>
     <row r="1316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1316" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B1316" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C1316" t="s">
-        <v>1756</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1317" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="B1317" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C1317" t="s">
-        <v>1673</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="1318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1318" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="B1318" t="s">
         <v>5</v>
       </c>
       <c r="C1318" t="s">
-        <v>1560</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1319" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B1319" t="s">
         <v>5</v>
       </c>
       <c r="C1319" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1320" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="B1320" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C1320" t="s">
         <v>1760</v>
@@ -20035,32 +20032,32 @@
     </row>
     <row r="1321" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1321" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B1321" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1321" t="s">
-        <v>1763</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1322" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="B1322" t="s">
         <v>5</v>
       </c>
       <c r="C1322" t="s">
-        <v>1746</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1323" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B1323" t="s">
         <v>1765</v>
-      </c>
-      <c r="B1323" t="s">
-        <v>5</v>
       </c>
       <c r="C1323" t="s">
         <v>1766</v>
@@ -20073,150 +20070,150 @@
       <c r="B1324" t="s">
         <v>1768</v>
       </c>
-      <c r="C1324" t="s">
-        <v>1769</v>
-      </c>
     </row>
     <row r="1325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1325" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B1325" t="s">
-        <v>1771</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1326" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="B1326" t="s">
-        <v>1740</v>
+        <v>5</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>1743</v>
       </c>
     </row>
     <row r="1327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1327" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="B1327" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C1327" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="1328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1328" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B1328" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1328" t="s">
-        <v>1775</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="1329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1329" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="B1329" t="s">
-        <v>1724</v>
+        <v>10</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>1753</v>
       </c>
     </row>
     <row r="1330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1330" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="B1330" t="s">
         <v>10</v>
       </c>
       <c r="C1330" t="s">
-        <v>1756</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="1331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1331" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B1331" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C1331" t="s">
-        <v>1779</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1332" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="B1332" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C1332" t="s">
-        <v>1673</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="1333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1333" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="B1333" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="C1333" t="s">
-        <v>1560</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="1334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1334" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1334" t="s">
         <v>1782</v>
-      </c>
-      <c r="B1334" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1334" t="s">
-        <v>1783</v>
       </c>
     </row>
     <row r="1335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1335" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1335" t="s">
         <v>1784</v>
-      </c>
-      <c r="B1335" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1335" t="s">
-        <v>1785</v>
       </c>
     </row>
     <row r="1336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1336" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1336" t="s">
         <v>1786</v>
-      </c>
-      <c r="B1336" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1336" t="s">
-        <v>1787</v>
       </c>
     </row>
     <row r="1337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1337" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B1337" t="s">
         <v>10</v>
       </c>
       <c r="C1337" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="1338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1338" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="B1338" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1338" t="s">
         <v>1789</v>
@@ -20224,168 +20221,168 @@
     </row>
     <row r="1339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1339" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B1339" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1339" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="1340" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1340" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="B1340" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="1341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1341" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="B1341" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1342" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="B1342" t="s">
-        <v>1795</v>
+        <v>10</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>1794</v>
       </c>
     </row>
     <row r="1343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1343" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1343" t="s">
         <v>1796</v>
-      </c>
-      <c r="B1343" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1343" t="s">
-        <v>1797</v>
       </c>
     </row>
     <row r="1344" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1344" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B1344" t="s">
         <v>10</v>
       </c>
       <c r="C1344" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="1345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1345" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="B1345" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1345" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1346" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="B1346" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="1347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1347" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1347" t="s">
         <v>1802</v>
-      </c>
-      <c r="B1347" t="s">
-        <v>1803</v>
       </c>
     </row>
     <row r="1348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1348" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B1348" t="s">
         <v>5</v>
       </c>
       <c r="C1348" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="1349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1349" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="B1349" t="s">
         <v>5</v>
       </c>
       <c r="C1349" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D1349" t="s">
         <v>1805</v>
       </c>
     </row>
     <row r="1350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1350" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1350" t="s">
         <v>1807</v>
-      </c>
-      <c r="B1350" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1350" t="s">
-        <v>1805</v>
-      </c>
-      <c r="D1350" t="s">
-        <v>1808</v>
       </c>
     </row>
     <row r="1351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1351" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B1351" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1351" t="s">
-        <v>1810</v>
+        <v>324</v>
       </c>
     </row>
     <row r="1352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1352" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="B1352" t="s">
-        <v>324</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1353" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1353" t="s">
         <v>1812</v>
-      </c>
-      <c r="B1353" t="s">
-        <v>1813</v>
       </c>
     </row>
     <row r="1354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1354" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B1354" t="s">
         <v>44</v>
       </c>
       <c r="C1354" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1355" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="B1355" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C1355" t="s">
         <v>1815</v>
@@ -20393,155 +20390,155 @@
     </row>
     <row r="1356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1356" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B1356" t="s">
         <v>61</v>
       </c>
       <c r="C1356" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1357" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B1357" t="s">
         <v>61</v>
       </c>
       <c r="C1357" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1358" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="B1358" t="s">
         <v>61</v>
       </c>
       <c r="C1358" t="s">
-        <v>1820</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1359" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="B1359" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C1359" t="s">
-        <v>1818</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1360" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1360" t="s">
         <v>1823</v>
-      </c>
-      <c r="B1360" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1360" t="s">
-        <v>1824</v>
       </c>
     </row>
     <row r="1361" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1361" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B1361" t="s">
         <v>5</v>
       </c>
       <c r="C1361" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="1362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1362" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="B1362" t="s">
         <v>5</v>
       </c>
       <c r="C1362" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="1363" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1363" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="B1363" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="C1363" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="1364" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1364" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B1364" t="s">
         <v>61</v>
       </c>
       <c r="C1364" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="1365" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1365" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="B1365" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1365" t="s">
         <v>1830</v>
       </c>
     </row>
     <row r="1366" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1366" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B1366" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1367" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="B1367" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1367" t="s">
         <v>1833</v>
       </c>
     </row>
     <row r="1368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1368" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1368" t="s">
         <v>1835</v>
-      </c>
-      <c r="B1368" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1368" t="s">
-        <v>1836</v>
       </c>
     </row>
     <row r="1369" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1369" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B1369" t="s">
         <v>44</v>
       </c>
       <c r="C1369" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1370" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1370" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="B1370" t="s">
         <v>44</v>
@@ -20552,21 +20549,21 @@
     </row>
     <row r="1371" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1371" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B1371" t="s">
         <v>44</v>
       </c>
       <c r="C1371" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1372" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="B1372" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C1372" t="s">
         <v>1841</v>
@@ -20574,259 +20571,259 @@
     </row>
     <row r="1373" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1373" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B1373" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1373" t="s">
-        <v>1844</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="1374" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1374" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="B1374" t="s">
-        <v>1803</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1375" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1375" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="B1375" t="s">
-        <v>1813</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1376" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1376" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="B1376" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1377" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="B1377" t="s">
-        <v>1833</v>
+        <v>10</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>1847</v>
       </c>
     </row>
     <row r="1378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1378" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1378" t="s">
         <v>1849</v>
-      </c>
-      <c r="B1378" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1378" t="s">
-        <v>1850</v>
       </c>
     </row>
     <row r="1379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1379" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1379" t="s">
         <v>1851</v>
-      </c>
-      <c r="B1379" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1379" t="s">
-        <v>1852</v>
       </c>
     </row>
     <row r="1380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1380" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1380" t="s">
         <v>1853</v>
-      </c>
-      <c r="B1380" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1380" t="s">
-        <v>1854</v>
       </c>
     </row>
     <row r="1381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1381" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B1381" t="s">
         <v>10</v>
       </c>
       <c r="C1381" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1382" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="B1382" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C1382" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1382" t="s">
         <v>1856</v>
       </c>
     </row>
     <row r="1383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1383" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B1383" t="s">
         <v>16</v>
       </c>
       <c r="C1383" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1383" t="s">
-        <v>1859</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1384" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="B1384" t="s">
         <v>16</v>
       </c>
       <c r="C1384" t="s">
-        <v>1126</v>
+        <v>1125</v>
+      </c>
+      <c r="D1384" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="1385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1385" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="B1385" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C1385" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D1385" t="s">
-        <v>365</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1386" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="B1386" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1386" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1387" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1387" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C1387" t="s">
         <v>1863</v>
-      </c>
-      <c r="B1387" t="s">
-        <v>1864</v>
       </c>
     </row>
     <row r="1388" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1388" t="s">
-        <v>1865</v>
+        <v>213</v>
       </c>
       <c r="B1388" t="s">
-        <v>1864</v>
-      </c>
-      <c r="C1388" t="s">
-        <v>1866</v>
+        <v>213</v>
       </c>
     </row>
     <row r="1389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1389" t="s">
-        <v>213</v>
+        <v>1864</v>
       </c>
       <c r="B1389" t="s">
         <v>213</v>
       </c>
+      <c r="C1389" t="s">
+        <v>1864</v>
+      </c>
     </row>
     <row r="1390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1390" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="B1390" t="s">
-        <v>213</v>
+        <v>10</v>
       </c>
       <c r="C1390" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1391" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="B1391" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1391" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1392" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1392" t="s">
         <v>1869</v>
-      </c>
-      <c r="B1392" t="s">
-        <v>1870</v>
       </c>
     </row>
     <row r="1393" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1393" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B1393" t="s">
         <v>5</v>
       </c>
       <c r="C1393" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1394" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1394" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="B1394" t="s">
         <v>5</v>
       </c>
       <c r="C1394" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1395" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1395" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="B1395" t="s">
         <v>5</v>
       </c>
       <c r="C1395" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1396" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1396" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B1396" t="s">
         <v>5</v>
       </c>
       <c r="C1396" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1397" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1397" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="B1397" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C1397" t="s">
         <v>1876</v>
@@ -20834,54 +20831,54 @@
     </row>
     <row r="1398" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1398" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B1398" t="s">
         <v>44</v>
       </c>
       <c r="C1398" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1399" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1399" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="B1399" t="s">
         <v>44</v>
       </c>
       <c r="C1399" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1400" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1400" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="B1400" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C1400" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1401" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1401" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B1401" t="s">
         <v>61</v>
       </c>
       <c r="C1401" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1402" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1402" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="B1402" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C1402" t="s">
         <v>1883</v>
@@ -20889,21 +20886,21 @@
     </row>
     <row r="1403" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1403" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B1403" t="s">
         <v>10</v>
       </c>
       <c r="C1403" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1404" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1404" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="B1404" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1404" t="s">
         <v>1886</v>
@@ -20911,76 +20908,76 @@
     </row>
     <row r="1405" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1405" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B1405" t="s">
         <v>5</v>
       </c>
       <c r="C1405" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1406" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1406" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="B1406" t="s">
         <v>5</v>
       </c>
       <c r="C1406" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1407" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1407" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="B1407" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C1407" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1408" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1408" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B1408" t="s">
         <v>44</v>
       </c>
       <c r="C1408" t="s">
-        <v>1893</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1409" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1409" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="B1409" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C1409" t="s">
-        <v>1675</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="1410" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1410" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B1410" t="s">
         <v>61</v>
       </c>
       <c r="C1410" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="1411" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1411" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="B1411" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="C1411" t="s">
         <v>1896</v>
@@ -20988,83 +20985,80 @@
     </row>
     <row r="1412" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1412" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B1412" t="s">
         <v>5</v>
       </c>
       <c r="C1412" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1413" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1413" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="B1413" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1413" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1414" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1414" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="B1414" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1415" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1415" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="B1415" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1415" t="s">
         <v>1901</v>
       </c>
     </row>
     <row r="1416" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1416" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1416" t="s">
         <v>1903</v>
-      </c>
-      <c r="B1416" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1416" t="s">
-        <v>1904</v>
       </c>
     </row>
     <row r="1417" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1417" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B1417" t="s">
         <v>1905</v>
-      </c>
-      <c r="B1417" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1417" t="s">
-        <v>1906</v>
       </c>
     </row>
     <row r="1418" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1418" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B1418" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1419" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1419" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="B1419" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1420" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1420" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="B1420" t="s">
         <v>1909</v>
@@ -21072,63 +21066,55 @@
     </row>
     <row r="1421" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1421" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B1421" t="s">
-        <v>1912</v>
+        <v>10</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>1903</v>
       </c>
     </row>
     <row r="1422" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1422" t="s">
-        <v>1913</v>
+        <v>1905</v>
       </c>
       <c r="B1422" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1422" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1423" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1423" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="B1423" t="s">
-        <v>1908</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1424" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1424" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="B1424" t="s">
-        <v>8</v>
+        <v>776</v>
       </c>
     </row>
     <row r="1425" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1425" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="B1425" t="s">
-        <v>776</v>
+        <v>1283</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="1426" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1426" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="B1426" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C1426" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="1427" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1427" t="s">
-        <v>1917</v>
-      </c>
-      <c r="B1427" t="s">
         <v>826</v>
       </c>
     </row>
